--- a/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-organization.xlsx
+++ b/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-organization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8441" uniqueCount="849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8441" uniqueCount="848">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T14:18:11+00:00</t>
+    <t>2024-10-11T14:28:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2207,10 +2207,6 @@
   </si>
   <si>
     <t>Human contact for the organization.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">profile:$this.resolve()}
-</t>
   </si>
   <si>
     <t>cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}
@@ -26393,7 +26389,7 @@
         <v>79</v>
       </c>
       <c r="AB195" t="s" s="2">
-        <v>706</v>
+        <v>546</v>
       </c>
       <c r="AC195" s="2"/>
       <c r="AD195" t="s" s="2">
@@ -26415,22 +26411,22 @@
         <v>212</v>
       </c>
       <c r="AJ195" t="s" s="2">
+        <v>706</v>
+      </c>
+      <c r="AK195" t="s" s="2">
         <v>707</v>
       </c>
-      <c r="AK195" t="s" s="2">
+      <c r="AL195" t="s" s="2">
         <v>708</v>
       </c>
-      <c r="AL195" t="s" s="2">
+      <c r="AM195" t="s" s="2">
         <v>709</v>
       </c>
-      <c r="AM195" t="s" s="2">
+      <c r="AN195" t="s" s="2">
         <v>710</v>
       </c>
-      <c r="AN195" t="s" s="2">
+      <c r="AO195" t="s" s="2">
         <v>711</v>
-      </c>
-      <c r="AO195" t="s" s="2">
-        <v>712</v>
       </c>
       <c r="AP195" t="s" s="2">
         <v>79</v>
@@ -26438,10 +26434,10 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -26556,10 +26552,10 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -26676,13 +26672,13 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="B198" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="C198" t="s" s="2">
         <v>715</v>
-      </c>
-      <c r="B198" t="s" s="2">
-        <v>714</v>
-      </c>
-      <c r="C198" t="s" s="2">
-        <v>716</v>
       </c>
       <c r="D198" t="s" s="2">
         <v>79</v>
@@ -26704,13 +26700,13 @@
         <v>79</v>
       </c>
       <c r="K198" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="L198" t="s" s="2">
         <v>717</v>
       </c>
-      <c r="L198" t="s" s="2">
+      <c r="M198" t="s" s="2">
         <v>718</v>
-      </c>
-      <c r="M198" t="s" s="2">
-        <v>719</v>
       </c>
       <c r="N198" s="2"/>
       <c r="O198" s="2"/>
@@ -26796,10 +26792,10 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -26825,10 +26821,10 @@
         <v>180</v>
       </c>
       <c r="L199" t="s" s="2">
+        <v>720</v>
+      </c>
+      <c r="M199" t="s" s="2">
         <v>721</v>
-      </c>
-      <c r="M199" t="s" s="2">
-        <v>722</v>
       </c>
       <c r="N199" s="2"/>
       <c r="O199" s="2"/>
@@ -26858,37 +26854,37 @@
         <v>334</v>
       </c>
       <c r="Y199" t="s" s="2">
+        <v>722</v>
+      </c>
+      <c r="Z199" t="s" s="2">
         <v>723</v>
       </c>
-      <c r="Z199" t="s" s="2">
+      <c r="AA199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF199" t="s" s="2">
         <v>724</v>
       </c>
-      <c r="AA199" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB199" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC199" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD199" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE199" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF199" t="s" s="2">
+      <c r="AG199" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH199" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI199" t="s" s="2">
         <v>725</v>
-      </c>
-      <c r="AG199" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH199" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI199" t="s" s="2">
-        <v>726</v>
       </c>
       <c r="AJ199" t="s" s="2">
         <v>103</v>
@@ -26900,13 +26896,13 @@
         <v>79</v>
       </c>
       <c r="AM199" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="AN199" t="s" s="2">
         <v>727</v>
       </c>
-      <c r="AN199" t="s" s="2">
+      <c r="AO199" t="s" s="2">
         <v>728</v>
-      </c>
-      <c r="AO199" t="s" s="2">
-        <v>729</v>
       </c>
       <c r="AP199" t="s" s="2">
         <v>79</v>
@@ -26914,10 +26910,10 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -26943,16 +26939,16 @@
         <v>105</v>
       </c>
       <c r="L200" t="s" s="2">
+        <v>730</v>
+      </c>
+      <c r="M200" t="s" s="2">
         <v>731</v>
       </c>
-      <c r="M200" t="s" s="2">
+      <c r="N200" t="s" s="2">
         <v>732</v>
       </c>
-      <c r="N200" t="s" s="2">
+      <c r="O200" t="s" s="2">
         <v>733</v>
-      </c>
-      <c r="O200" t="s" s="2">
-        <v>734</v>
       </c>
       <c r="P200" t="s" s="2">
         <v>79</v>
@@ -27001,7 +26997,7 @@
         <v>79</v>
       </c>
       <c r="AF200" t="s" s="2">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AG200" t="s" s="2">
         <v>80</v>
@@ -27022,10 +27018,10 @@
         <v>79</v>
       </c>
       <c r="AM200" t="s" s="2">
+        <v>735</v>
+      </c>
+      <c r="AN200" t="s" s="2">
         <v>736</v>
-      </c>
-      <c r="AN200" t="s" s="2">
-        <v>737</v>
       </c>
       <c r="AO200" t="s" s="2">
         <v>372</v>
@@ -27036,10 +27032,10 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -27065,16 +27061,16 @@
         <v>180</v>
       </c>
       <c r="L201" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="M201" t="s" s="2">
         <v>739</v>
       </c>
-      <c r="M201" t="s" s="2">
+      <c r="N201" t="s" s="2">
         <v>740</v>
       </c>
-      <c r="N201" t="s" s="2">
+      <c r="O201" t="s" s="2">
         <v>741</v>
-      </c>
-      <c r="O201" t="s" s="2">
-        <v>742</v>
       </c>
       <c r="P201" t="s" s="2">
         <v>79</v>
@@ -27102,28 +27098,28 @@
         <v>334</v>
       </c>
       <c r="Y201" t="s" s="2">
+        <v>742</v>
+      </c>
+      <c r="Z201" t="s" s="2">
         <v>743</v>
       </c>
-      <c r="Z201" t="s" s="2">
+      <c r="AA201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF201" t="s" s="2">
         <v>744</v>
-      </c>
-      <c r="AA201" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB201" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC201" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD201" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE201" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF201" t="s" s="2">
-        <v>745</v>
       </c>
       <c r="AG201" t="s" s="2">
         <v>80</v>
@@ -27144,13 +27140,13 @@
         <v>79</v>
       </c>
       <c r="AM201" t="s" s="2">
+        <v>745</v>
+      </c>
+      <c r="AN201" t="s" s="2">
         <v>746</v>
       </c>
-      <c r="AN201" t="s" s="2">
+      <c r="AO201" t="s" s="2">
         <v>747</v>
-      </c>
-      <c r="AO201" t="s" s="2">
-        <v>748</v>
       </c>
       <c r="AP201" t="s" s="2">
         <v>79</v>
@@ -27158,10 +27154,10 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -27184,16 +27180,16 @@
         <v>92</v>
       </c>
       <c r="K202" t="s" s="2">
+        <v>749</v>
+      </c>
+      <c r="L202" t="s" s="2">
         <v>750</v>
       </c>
-      <c r="L202" t="s" s="2">
+      <c r="M202" t="s" s="2">
         <v>751</v>
       </c>
-      <c r="M202" t="s" s="2">
+      <c r="N202" t="s" s="2">
         <v>752</v>
-      </c>
-      <c r="N202" t="s" s="2">
-        <v>753</v>
       </c>
       <c r="O202" s="2"/>
       <c r="P202" t="s" s="2">
@@ -27243,7 +27239,7 @@
         <v>79</v>
       </c>
       <c r="AF202" t="s" s="2">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="AG202" t="s" s="2">
         <v>80</v>
@@ -27278,10 +27274,10 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" t="s" s="2">
@@ -27307,10 +27303,10 @@
         <v>234</v>
       </c>
       <c r="L203" t="s" s="2">
+        <v>755</v>
+      </c>
+      <c r="M203" t="s" s="2">
         <v>756</v>
-      </c>
-      <c r="M203" t="s" s="2">
-        <v>757</v>
       </c>
       <c r="N203" s="2"/>
       <c r="O203" s="2"/>
@@ -27361,7 +27357,7 @@
         <v>79</v>
       </c>
       <c r="AF203" t="s" s="2">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AG203" t="s" s="2">
         <v>80</v>
@@ -27385,7 +27381,7 @@
         <v>203</v>
       </c>
       <c r="AN203" t="s" s="2">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="AO203" t="s" s="2">
         <v>380</v>
@@ -27396,13 +27392,13 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B204" t="s" s="2">
         <v>700</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D204" t="s" s="2">
         <v>79</v>
@@ -27424,10 +27420,10 @@
         <v>79</v>
       </c>
       <c r="K204" t="s" s="2">
+        <v>761</v>
+      </c>
+      <c r="L204" t="s" s="2">
         <v>762</v>
-      </c>
-      <c r="L204" t="s" s="2">
-        <v>763</v>
       </c>
       <c r="M204" t="s" s="2">
         <v>703</v>
@@ -27497,22 +27493,22 @@
         <v>212</v>
       </c>
       <c r="AJ204" t="s" s="2">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AK204" t="s" s="2">
+        <v>763</v>
+      </c>
+      <c r="AL204" t="s" s="2">
         <v>764</v>
       </c>
-      <c r="AL204" t="s" s="2">
-        <v>765</v>
-      </c>
       <c r="AM204" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="AN204" t="s" s="2">
         <v>710</v>
       </c>
-      <c r="AN204" t="s" s="2">
+      <c r="AO204" t="s" s="2">
         <v>711</v>
-      </c>
-      <c r="AO204" t="s" s="2">
-        <v>712</v>
       </c>
       <c r="AP204" t="s" s="2">
         <v>79</v>
@@ -27520,10 +27516,10 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -27546,19 +27542,19 @@
         <v>79</v>
       </c>
       <c r="K205" t="s" s="2">
+        <v>766</v>
+      </c>
+      <c r="L205" t="s" s="2">
         <v>767</v>
       </c>
-      <c r="L205" t="s" s="2">
+      <c r="M205" t="s" s="2">
         <v>768</v>
       </c>
-      <c r="M205" t="s" s="2">
+      <c r="N205" t="s" s="2">
         <v>769</v>
       </c>
-      <c r="N205" t="s" s="2">
+      <c r="O205" t="s" s="2">
         <v>770</v>
-      </c>
-      <c r="O205" t="s" s="2">
-        <v>771</v>
       </c>
       <c r="P205" t="s" s="2">
         <v>79</v>
@@ -27607,7 +27603,7 @@
         <v>79</v>
       </c>
       <c r="AF205" t="s" s="2">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="AG205" t="s" s="2">
         <v>80</v>
@@ -27619,22 +27615,22 @@
         <v>212</v>
       </c>
       <c r="AJ205" t="s" s="2">
+        <v>771</v>
+      </c>
+      <c r="AK205" t="s" s="2">
         <v>772</v>
       </c>
-      <c r="AK205" t="s" s="2">
+      <c r="AL205" t="s" s="2">
         <v>773</v>
       </c>
-      <c r="AL205" t="s" s="2">
+      <c r="AM205" t="s" s="2">
         <v>774</v>
       </c>
-      <c r="AM205" t="s" s="2">
+      <c r="AN205" t="s" s="2">
         <v>775</v>
       </c>
-      <c r="AN205" t="s" s="2">
+      <c r="AO205" t="s" s="2">
         <v>776</v>
-      </c>
-      <c r="AO205" t="s" s="2">
-        <v>777</v>
       </c>
       <c r="AP205" t="s" s="2">
         <v>79</v>
@@ -27642,10 +27638,10 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -27668,17 +27664,17 @@
         <v>92</v>
       </c>
       <c r="K206" t="s" s="2">
+        <v>778</v>
+      </c>
+      <c r="L206" t="s" s="2">
         <v>779</v>
       </c>
-      <c r="L206" t="s" s="2">
+      <c r="M206" t="s" s="2">
         <v>780</v>
-      </c>
-      <c r="M206" t="s" s="2">
-        <v>781</v>
       </c>
       <c r="N206" s="2"/>
       <c r="O206" t="s" s="2">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="P206" t="s" s="2">
         <v>79</v>
@@ -27727,7 +27723,7 @@
         <v>79</v>
       </c>
       <c r="AF206" t="s" s="2">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AG206" t="s" s="2">
         <v>80</v>
@@ -27751,7 +27747,7 @@
         <v>535</v>
       </c>
       <c r="AN206" t="s" s="2">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="AO206" t="s" s="2">
         <v>109</v>
@@ -27762,10 +27758,10 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -27880,10 +27876,10 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -28000,10 +27996,10 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -28029,13 +28025,13 @@
         <v>105</v>
       </c>
       <c r="L209" t="s" s="2">
+        <v>786</v>
+      </c>
+      <c r="M209" t="s" s="2">
         <v>787</v>
       </c>
-      <c r="M209" t="s" s="2">
+      <c r="N209" t="s" s="2">
         <v>788</v>
-      </c>
-      <c r="N209" t="s" s="2">
-        <v>789</v>
       </c>
       <c r="O209" s="2"/>
       <c r="P209" t="s" s="2">
@@ -28085,16 +28081,16 @@
         <v>79</v>
       </c>
       <c r="AF209" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="AG209" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH209" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI209" t="s" s="2">
         <v>790</v>
-      </c>
-      <c r="AG209" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH209" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI209" t="s" s="2">
-        <v>791</v>
       </c>
       <c r="AJ209" t="s" s="2">
         <v>103</v>
@@ -28120,10 +28116,10 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -28149,13 +28145,13 @@
         <v>138</v>
       </c>
       <c r="L210" t="s" s="2">
+        <v>792</v>
+      </c>
+      <c r="M210" t="s" s="2">
         <v>793</v>
       </c>
-      <c r="M210" t="s" s="2">
+      <c r="N210" t="s" s="2">
         <v>794</v>
-      </c>
-      <c r="N210" t="s" s="2">
-        <v>795</v>
       </c>
       <c r="O210" s="2"/>
       <c r="P210" t="s" s="2">
@@ -28203,7 +28199,7 @@
         <v>79</v>
       </c>
       <c r="AF210" t="s" s="2">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="AG210" t="s" s="2">
         <v>80</v>
@@ -28238,10 +28234,10 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -28267,13 +28263,13 @@
         <v>307</v>
       </c>
       <c r="L211" t="s" s="2">
+        <v>797</v>
+      </c>
+      <c r="M211" t="s" s="2">
         <v>798</v>
       </c>
-      <c r="M211" t="s" s="2">
+      <c r="N211" t="s" s="2">
         <v>799</v>
-      </c>
-      <c r="N211" t="s" s="2">
-        <v>800</v>
       </c>
       <c r="O211" s="2"/>
       <c r="P211" t="s" s="2">
@@ -28323,7 +28319,7 @@
         <v>79</v>
       </c>
       <c r="AF211" t="s" s="2">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="AG211" t="s" s="2">
         <v>80</v>
@@ -28347,7 +28343,7 @@
         <v>79</v>
       </c>
       <c r="AN211" t="s" s="2">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="AO211" t="s" s="2">
         <v>79</v>
@@ -28358,10 +28354,10 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -28387,13 +28383,13 @@
         <v>105</v>
       </c>
       <c r="L212" t="s" s="2">
+        <v>803</v>
+      </c>
+      <c r="M212" t="s" s="2">
         <v>804</v>
       </c>
-      <c r="M212" t="s" s="2">
+      <c r="N212" t="s" s="2">
         <v>805</v>
-      </c>
-      <c r="N212" t="s" s="2">
-        <v>806</v>
       </c>
       <c r="O212" s="2"/>
       <c r="P212" t="s" s="2">
@@ -28443,7 +28439,7 @@
         <v>79</v>
       </c>
       <c r="AF212" t="s" s="2">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="AG212" t="s" s="2">
         <v>80</v>
@@ -28478,10 +28474,10 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -28504,19 +28500,19 @@
         <v>79</v>
       </c>
       <c r="K213" t="s" s="2">
+        <v>808</v>
+      </c>
+      <c r="L213" t="s" s="2">
         <v>809</v>
       </c>
-      <c r="L213" t="s" s="2">
+      <c r="M213" t="s" s="2">
         <v>810</v>
       </c>
-      <c r="M213" t="s" s="2">
+      <c r="N213" t="s" s="2">
         <v>811</v>
       </c>
-      <c r="N213" t="s" s="2">
+      <c r="O213" t="s" s="2">
         <v>812</v>
-      </c>
-      <c r="O213" t="s" s="2">
-        <v>813</v>
       </c>
       <c r="P213" t="s" s="2">
         <v>79</v>
@@ -28565,7 +28561,7 @@
         <v>79</v>
       </c>
       <c r="AF213" t="s" s="2">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="AG213" t="s" s="2">
         <v>80</v>
@@ -28589,7 +28585,7 @@
         <v>79</v>
       </c>
       <c r="AN213" t="s" s="2">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="AO213" t="s" s="2">
         <v>79</v>
@@ -28600,10 +28596,10 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -28718,10 +28714,10 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
@@ -28838,14 +28834,14 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E216" s="2"/>
       <c r="F216" t="s" s="2">
@@ -28867,10 +28863,10 @@
         <v>112</v>
       </c>
       <c r="L216" t="s" s="2">
+        <v>818</v>
+      </c>
+      <c r="M216" t="s" s="2">
         <v>819</v>
-      </c>
-      <c r="M216" t="s" s="2">
-        <v>820</v>
       </c>
       <c r="N216" t="s" s="2">
         <v>115</v>
@@ -28925,7 +28921,7 @@
         <v>79</v>
       </c>
       <c r="AF216" t="s" s="2">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="AG216" t="s" s="2">
         <v>80</v>
@@ -28960,10 +28956,10 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -28989,14 +28985,14 @@
         <v>341</v>
       </c>
       <c r="L217" t="s" s="2">
+        <v>822</v>
+      </c>
+      <c r="M217" t="s" s="2">
         <v>823</v>
-      </c>
-      <c r="M217" t="s" s="2">
-        <v>824</v>
       </c>
       <c r="N217" s="2"/>
       <c r="O217" t="s" s="2">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="P217" t="s" s="2">
         <v>79</v>
@@ -29024,11 +29020,11 @@
         <v>162</v>
       </c>
       <c r="Y217" t="s" s="2">
+        <v>825</v>
+      </c>
+      <c r="Z217" t="s" s="2">
         <v>826</v>
       </c>
-      <c r="Z217" t="s" s="2">
-        <v>827</v>
-      </c>
       <c r="AA217" t="s" s="2">
         <v>79</v>
       </c>
@@ -29045,7 +29041,7 @@
         <v>79</v>
       </c>
       <c r="AF217" t="s" s="2">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AG217" t="s" s="2">
         <v>80</v>
@@ -29069,7 +29065,7 @@
         <v>79</v>
       </c>
       <c r="AN217" t="s" s="2">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="AO217" t="s" s="2">
         <v>79</v>
@@ -29080,10 +29076,10 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
@@ -29106,17 +29102,17 @@
         <v>79</v>
       </c>
       <c r="K218" t="s" s="2">
+        <v>829</v>
+      </c>
+      <c r="L218" t="s" s="2">
         <v>830</v>
       </c>
-      <c r="L218" t="s" s="2">
+      <c r="M218" t="s" s="2">
         <v>831</v>
-      </c>
-      <c r="M218" t="s" s="2">
-        <v>832</v>
       </c>
       <c r="N218" s="2"/>
       <c r="O218" t="s" s="2">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="P218" t="s" s="2">
         <v>79</v>
@@ -29165,7 +29161,7 @@
         <v>79</v>
       </c>
       <c r="AF218" t="s" s="2">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="AG218" t="s" s="2">
         <v>80</v>
@@ -29186,10 +29182,10 @@
         <v>79</v>
       </c>
       <c r="AM218" t="s" s="2">
+        <v>833</v>
+      </c>
+      <c r="AN218" t="s" s="2">
         <v>834</v>
-      </c>
-      <c r="AN218" t="s" s="2">
-        <v>835</v>
       </c>
       <c r="AO218" t="s" s="2">
         <v>79</v>
@@ -29200,10 +29196,10 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -29229,14 +29225,14 @@
         <v>701</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="M219" t="s" s="2">
         <v>703</v>
       </c>
       <c r="N219" s="2"/>
       <c r="O219" t="s" s="2">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="P219" t="s" s="2">
         <v>79</v>
@@ -29285,7 +29281,7 @@
         <v>79</v>
       </c>
       <c r="AF219" t="s" s="2">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="AG219" t="s" s="2">
         <v>80</v>
@@ -29297,7 +29293,7 @@
         <v>212</v>
       </c>
       <c r="AJ219" t="s" s="2">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="AK219" t="s" s="2">
         <v>79</v>
@@ -29306,13 +29302,13 @@
         <v>79</v>
       </c>
       <c r="AM219" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="AN219" t="s" s="2">
         <v>710</v>
       </c>
-      <c r="AN219" t="s" s="2">
+      <c r="AO219" t="s" s="2">
         <v>711</v>
-      </c>
-      <c r="AO219" t="s" s="2">
-        <v>712</v>
       </c>
       <c r="AP219" t="s" s="2">
         <v>79</v>
@@ -29320,10 +29316,10 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -29346,19 +29342,19 @@
         <v>79</v>
       </c>
       <c r="K220" t="s" s="2">
+        <v>840</v>
+      </c>
+      <c r="L220" t="s" s="2">
         <v>841</v>
       </c>
-      <c r="L220" t="s" s="2">
+      <c r="M220" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="N220" t="s" s="2">
+        <v>769</v>
+      </c>
+      <c r="O220" t="s" s="2">
         <v>842</v>
-      </c>
-      <c r="M220" t="s" s="2">
-        <v>769</v>
-      </c>
-      <c r="N220" t="s" s="2">
-        <v>770</v>
-      </c>
-      <c r="O220" t="s" s="2">
-        <v>843</v>
       </c>
       <c r="P220" t="s" s="2">
         <v>79</v>
@@ -29407,7 +29403,7 @@
         <v>79</v>
       </c>
       <c r="AF220" t="s" s="2">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="AG220" t="s" s="2">
         <v>80</v>
@@ -29428,13 +29424,13 @@
         <v>79</v>
       </c>
       <c r="AM220" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="AN220" t="s" s="2">
         <v>775</v>
       </c>
-      <c r="AN220" t="s" s="2">
+      <c r="AO220" t="s" s="2">
         <v>776</v>
-      </c>
-      <c r="AO220" t="s" s="2">
-        <v>777</v>
       </c>
       <c r="AP220" t="s" s="2">
         <v>79</v>
@@ -29442,10 +29438,10 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
@@ -29468,17 +29464,17 @@
         <v>79</v>
       </c>
       <c r="K221" t="s" s="2">
+        <v>844</v>
+      </c>
+      <c r="L221" t="s" s="2">
         <v>845</v>
       </c>
-      <c r="L221" t="s" s="2">
+      <c r="M221" t="s" s="2">
         <v>846</v>
-      </c>
-      <c r="M221" t="s" s="2">
-        <v>847</v>
       </c>
       <c r="N221" s="2"/>
       <c r="O221" t="s" s="2">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="P221" t="s" s="2">
         <v>79</v>
@@ -29527,7 +29523,7 @@
         <v>79</v>
       </c>
       <c r="AF221" t="s" s="2">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="AG221" t="s" s="2">
         <v>80</v>

--- a/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-organization.xlsx
+++ b/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T14:28:17+00:00</t>
+    <t>2024-10-11T14:48:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-organization.xlsx
+++ b/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-organization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8441" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8441" uniqueCount="849">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T14:48:45+00:00</t>
+    <t>2024-10-12T09:26:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2207,6 +2207,10 @@
   </si>
   <si>
     <t>Human contact for the organization.</t>
+  </si>
+  <si>
+    <t>pattern:system}
+pattern:extension('https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point-email-type').value}</t>
   </si>
   <si>
     <t>cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}
@@ -3008,7 +3012,7 @@
     <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="108.3828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="96.68359375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -26389,7 +26393,7 @@
         <v>79</v>
       </c>
       <c r="AB195" t="s" s="2">
-        <v>546</v>
+        <v>706</v>
       </c>
       <c r="AC195" s="2"/>
       <c r="AD195" t="s" s="2">
@@ -26411,22 +26415,22 @@
         <v>212</v>
       </c>
       <c r="AJ195" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AK195" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="AL195" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="AM195" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="AN195" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AO195" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AP195" t="s" s="2">
         <v>79</v>
@@ -26434,10 +26438,10 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -26552,10 +26556,10 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -26672,13 +26676,13 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="B198" t="s" s="2">
         <v>714</v>
       </c>
-      <c r="B198" t="s" s="2">
-        <v>713</v>
-      </c>
       <c r="C198" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D198" t="s" s="2">
         <v>79</v>
@@ -26700,13 +26704,13 @@
         <v>79</v>
       </c>
       <c r="K198" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="N198" s="2"/>
       <c r="O198" s="2"/>
@@ -26792,10 +26796,10 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -26821,10 +26825,10 @@
         <v>180</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="N199" s="2"/>
       <c r="O199" s="2"/>
@@ -26854,10 +26858,10 @@
         <v>334</v>
       </c>
       <c r="Y199" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="Z199" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="AA199" t="s" s="2">
         <v>79</v>
@@ -26875,7 +26879,7 @@
         <v>79</v>
       </c>
       <c r="AF199" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="AG199" t="s" s="2">
         <v>80</v>
@@ -26884,7 +26888,7 @@
         <v>91</v>
       </c>
       <c r="AI199" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="AJ199" t="s" s="2">
         <v>103</v>
@@ -26896,13 +26900,13 @@
         <v>79</v>
       </c>
       <c r="AM199" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="AN199" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="AO199" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="AP199" t="s" s="2">
         <v>79</v>
@@ -26910,10 +26914,10 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -26939,16 +26943,16 @@
         <v>105</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="N200" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="O200" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="P200" t="s" s="2">
         <v>79</v>
@@ -26997,7 +27001,7 @@
         <v>79</v>
       </c>
       <c r="AF200" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="AG200" t="s" s="2">
         <v>80</v>
@@ -27018,10 +27022,10 @@
         <v>79</v>
       </c>
       <c r="AM200" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AN200" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AO200" t="s" s="2">
         <v>372</v>
@@ -27032,10 +27036,10 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -27061,16 +27065,16 @@
         <v>180</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="N201" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="O201" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="P201" t="s" s="2">
         <v>79</v>
@@ -27098,10 +27102,10 @@
         <v>334</v>
       </c>
       <c r="Y201" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="Z201" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="AA201" t="s" s="2">
         <v>79</v>
@@ -27119,7 +27123,7 @@
         <v>79</v>
       </c>
       <c r="AF201" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="AG201" t="s" s="2">
         <v>80</v>
@@ -27140,13 +27144,13 @@
         <v>79</v>
       </c>
       <c r="AM201" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="AN201" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="AO201" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="AP201" t="s" s="2">
         <v>79</v>
@@ -27154,10 +27158,10 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -27180,16 +27184,16 @@
         <v>92</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="N202" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="O202" s="2"/>
       <c r="P202" t="s" s="2">
@@ -27239,7 +27243,7 @@
         <v>79</v>
       </c>
       <c r="AF202" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="AG202" t="s" s="2">
         <v>80</v>
@@ -27274,10 +27278,10 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" t="s" s="2">
@@ -27303,10 +27307,10 @@
         <v>234</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="N203" s="2"/>
       <c r="O203" s="2"/>
@@ -27357,7 +27361,7 @@
         <v>79</v>
       </c>
       <c r="AF203" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="AG203" t="s" s="2">
         <v>80</v>
@@ -27381,7 +27385,7 @@
         <v>203</v>
       </c>
       <c r="AN203" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="AO203" t="s" s="2">
         <v>380</v>
@@ -27392,13 +27396,13 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B204" t="s" s="2">
         <v>700</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D204" t="s" s="2">
         <v>79</v>
@@ -27420,10 +27424,10 @@
         <v>79</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="M204" t="s" s="2">
         <v>703</v>
@@ -27493,22 +27497,22 @@
         <v>212</v>
       </c>
       <c r="AJ204" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AK204" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="AL204" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="AM204" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="AN204" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AO204" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AP204" t="s" s="2">
         <v>79</v>
@@ -27516,10 +27520,10 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -27542,19 +27546,19 @@
         <v>79</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="N205" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="O205" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="P205" t="s" s="2">
         <v>79</v>
@@ -27603,7 +27607,7 @@
         <v>79</v>
       </c>
       <c r="AF205" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="AG205" t="s" s="2">
         <v>80</v>
@@ -27615,22 +27619,22 @@
         <v>212</v>
       </c>
       <c r="AJ205" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="AK205" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="AL205" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="AM205" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="AN205" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="AO205" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="AP205" t="s" s="2">
         <v>79</v>
@@ -27638,10 +27642,10 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -27664,17 +27668,17 @@
         <v>92</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="N206" s="2"/>
       <c r="O206" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="P206" t="s" s="2">
         <v>79</v>
@@ -27723,7 +27727,7 @@
         <v>79</v>
       </c>
       <c r="AF206" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="AG206" t="s" s="2">
         <v>80</v>
@@ -27747,7 +27751,7 @@
         <v>535</v>
       </c>
       <c r="AN206" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="AO206" t="s" s="2">
         <v>109</v>
@@ -27758,10 +27762,10 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -27876,10 +27880,10 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -27996,10 +28000,10 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -28025,13 +28029,13 @@
         <v>105</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="O209" s="2"/>
       <c r="P209" t="s" s="2">
@@ -28081,7 +28085,7 @@
         <v>79</v>
       </c>
       <c r="AF209" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="AG209" t="s" s="2">
         <v>80</v>
@@ -28090,7 +28094,7 @@
         <v>91</v>
       </c>
       <c r="AI209" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="AJ209" t="s" s="2">
         <v>103</v>
@@ -28116,10 +28120,10 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -28145,13 +28149,13 @@
         <v>138</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="O210" s="2"/>
       <c r="P210" t="s" s="2">
@@ -28199,7 +28203,7 @@
         <v>79</v>
       </c>
       <c r="AF210" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="AG210" t="s" s="2">
         <v>80</v>
@@ -28234,10 +28238,10 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -28263,13 +28267,13 @@
         <v>307</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="N211" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="O211" s="2"/>
       <c r="P211" t="s" s="2">
@@ -28319,7 +28323,7 @@
         <v>79</v>
       </c>
       <c r="AF211" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="AG211" t="s" s="2">
         <v>80</v>
@@ -28343,7 +28347,7 @@
         <v>79</v>
       </c>
       <c r="AN211" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="AO211" t="s" s="2">
         <v>79</v>
@@ -28354,10 +28358,10 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -28383,13 +28387,13 @@
         <v>105</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="N212" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="O212" s="2"/>
       <c r="P212" t="s" s="2">
@@ -28439,7 +28443,7 @@
         <v>79</v>
       </c>
       <c r="AF212" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="AG212" t="s" s="2">
         <v>80</v>
@@ -28474,10 +28478,10 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -28500,19 +28504,19 @@
         <v>79</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="N213" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="O213" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="P213" t="s" s="2">
         <v>79</v>
@@ -28561,7 +28565,7 @@
         <v>79</v>
       </c>
       <c r="AF213" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="AG213" t="s" s="2">
         <v>80</v>
@@ -28585,7 +28589,7 @@
         <v>79</v>
       </c>
       <c r="AN213" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="AO213" t="s" s="2">
         <v>79</v>
@@ -28596,10 +28600,10 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -28714,10 +28718,10 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
@@ -28834,14 +28838,14 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="E216" s="2"/>
       <c r="F216" t="s" s="2">
@@ -28863,10 +28867,10 @@
         <v>112</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="N216" t="s" s="2">
         <v>115</v>
@@ -28921,7 +28925,7 @@
         <v>79</v>
       </c>
       <c r="AF216" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="AG216" t="s" s="2">
         <v>80</v>
@@ -28956,10 +28960,10 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -28985,14 +28989,14 @@
         <v>341</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="N217" s="2"/>
       <c r="O217" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="P217" t="s" s="2">
         <v>79</v>
@@ -29020,10 +29024,10 @@
         <v>162</v>
       </c>
       <c r="Y217" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="Z217" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="AA217" t="s" s="2">
         <v>79</v>
@@ -29041,7 +29045,7 @@
         <v>79</v>
       </c>
       <c r="AF217" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="AG217" t="s" s="2">
         <v>80</v>
@@ -29065,7 +29069,7 @@
         <v>79</v>
       </c>
       <c r="AN217" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="AO217" t="s" s="2">
         <v>79</v>
@@ -29076,10 +29080,10 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
@@ -29102,17 +29106,17 @@
         <v>79</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="N218" s="2"/>
       <c r="O218" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="P218" t="s" s="2">
         <v>79</v>
@@ -29161,7 +29165,7 @@
         <v>79</v>
       </c>
       <c r="AF218" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="AG218" t="s" s="2">
         <v>80</v>
@@ -29182,10 +29186,10 @@
         <v>79</v>
       </c>
       <c r="AM218" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="AN218" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="AO218" t="s" s="2">
         <v>79</v>
@@ -29196,10 +29200,10 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -29225,14 +29229,14 @@
         <v>701</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="M219" t="s" s="2">
         <v>703</v>
       </c>
       <c r="N219" s="2"/>
       <c r="O219" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="P219" t="s" s="2">
         <v>79</v>
@@ -29281,7 +29285,7 @@
         <v>79</v>
       </c>
       <c r="AF219" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="AG219" t="s" s="2">
         <v>80</v>
@@ -29293,7 +29297,7 @@
         <v>212</v>
       </c>
       <c r="AJ219" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="AK219" t="s" s="2">
         <v>79</v>
@@ -29302,13 +29306,13 @@
         <v>79</v>
       </c>
       <c r="AM219" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="AN219" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AO219" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AP219" t="s" s="2">
         <v>79</v>
@@ -29316,10 +29320,10 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -29342,19 +29346,19 @@
         <v>79</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="N220" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="O220" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="P220" t="s" s="2">
         <v>79</v>
@@ -29403,7 +29407,7 @@
         <v>79</v>
       </c>
       <c r="AF220" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="AG220" t="s" s="2">
         <v>80</v>
@@ -29424,13 +29428,13 @@
         <v>79</v>
       </c>
       <c r="AM220" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="AN220" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="AO220" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="AP220" t="s" s="2">
         <v>79</v>
@@ -29438,10 +29442,10 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
@@ -29464,17 +29468,17 @@
         <v>79</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="N221" s="2"/>
       <c r="O221" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="P221" t="s" s="2">
         <v>79</v>
@@ -29523,7 +29527,7 @@
         <v>79</v>
       </c>
       <c r="AF221" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="AG221" t="s" s="2">
         <v>80</v>

--- a/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-organization.xlsx
+++ b/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-12T09:26:25+00:00</t>
+    <t>2024-10-29T10:53:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2210,7 +2210,7 @@
   </si>
   <si>
     <t>pattern:system}
-pattern:extension('https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point-email-type').value}</t>
+exists:extension('https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point-email-type')}</t>
   </si>
   <si>
     <t>cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}
@@ -3012,7 +3012,7 @@
     <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="108.3828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="96.68359375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="89.67578125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>

--- a/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-organization.xlsx
+++ b/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-29T10:53:15+00:00</t>
+    <t>2024-11-06T13:23:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-organization.xlsx
+++ b/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-06T13:23:16+00:00</t>
+    <t>2024-11-07T08:33:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-organization.xlsx
+++ b/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T08:33:26+00:00</t>
+    <t>2024-11-07T08:46:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-organization.xlsx
+++ b/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-organization.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$221</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$234</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8441" uniqueCount="849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8929" uniqueCount="876">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T08:46:41+00:00</t>
+    <t>2024-11-13T08:40:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2393,6 +2393,91 @@
   </si>
   <si>
     <t>EntiteGeographique.boiteLettreMSS</t>
+  </si>
+  <si>
+    <t>Organization.telecom:mailbox-mss.id</t>
+  </si>
+  <si>
+    <t>Organization.telecom:mailbox-mss.extension</t>
+  </si>
+  <si>
+    <t>Organization.telecom:mailbox-mss.extension:emailType</t>
+  </si>
+  <si>
+    <t>Organization.telecom:mailbox-mss.extension:emailType.id</t>
+  </si>
+  <si>
+    <t>Organization.telecom.extension.id</t>
+  </si>
+  <si>
+    <t>Organization.telecom:mailbox-mss.extension:emailType.extension</t>
+  </si>
+  <si>
+    <t>Organization.telecom.extension.extension</t>
+  </si>
+  <si>
+    <t>Organization.telecom:mailbox-mss.extension:emailType.url</t>
+  </si>
+  <si>
+    <t>Organization.telecom.extension.url</t>
+  </si>
+  <si>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point-email-type</t>
+  </si>
+  <si>
+    <t>Organization.telecom:mailbox-mss.extension:emailType.value[x]</t>
+  </si>
+  <si>
+    <t>Organization.telecom.extension.value[x]</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="https://mos.esante.gouv.fr/NOS/TRE_R256-TypeMessagerie/FHIR/TRE-R256-TypeMessagerie"/&gt;
+  &lt;code value="MSSANTE"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-email-type</t>
+  </si>
+  <si>
+    <t>Organization.telecom:mailbox-mss.extension:as-mailbox-mss-metadata</t>
+  </si>
+  <si>
+    <t>as-mailbox-mss-metadata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-mailbox-mss-metadata}
+</t>
+  </si>
+  <si>
+    <t>Les attributs 'responsible' et 'phone' ne sont pas disponibles en accès libre.</t>
+  </si>
+  <si>
+    <t>Extension contenant les métadonnées de la mailbox mss.</t>
+  </si>
+  <si>
+    <t>Organization.telecom:mailbox-mss.system</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Organization.telecom:mailbox-mss.value</t>
+  </si>
+  <si>
+    <t>Boîte Aux Lettres (BAL) MSS</t>
+  </si>
+  <si>
+    <t>Organization.telecom:mailbox-mss.use</t>
+  </si>
+  <si>
+    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Organization.telecom:mailbox-mss.rank</t>
+  </si>
+  <si>
+    <t>Organization.telecom:mailbox-mss.period</t>
   </si>
   <si>
     <t>Organization.address</t>
@@ -2976,7 +3061,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP221"/>
+  <dimension ref="A1:AP234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -27523,7 +27608,7 @@
         <v>766</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>766</v>
+        <v>713</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -27534,10 +27619,10 @@
         <v>80</v>
       </c>
       <c r="G205" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H205" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I205" t="s" s="2">
         <v>79</v>
@@ -27546,20 +27631,16 @@
         <v>79</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>767</v>
+        <v>105</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>768</v>
+        <v>106</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>769</v>
-      </c>
-      <c r="N205" t="s" s="2">
-        <v>770</v>
-      </c>
-      <c r="O205" t="s" s="2">
-        <v>771</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="N205" s="2"/>
+      <c r="O205" s="2"/>
       <c r="P205" t="s" s="2">
         <v>79</v>
       </c>
@@ -27607,34 +27688,34 @@
         <v>79</v>
       </c>
       <c r="AF205" t="s" s="2">
-        <v>766</v>
+        <v>108</v>
       </c>
       <c r="AG205" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH205" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI205" t="s" s="2">
-        <v>212</v>
+        <v>79</v>
       </c>
       <c r="AJ205" t="s" s="2">
-        <v>772</v>
+        <v>79</v>
       </c>
       <c r="AK205" t="s" s="2">
-        <v>773</v>
+        <v>79</v>
       </c>
       <c r="AL205" t="s" s="2">
-        <v>774</v>
+        <v>79</v>
       </c>
       <c r="AM205" t="s" s="2">
-        <v>775</v>
+        <v>79</v>
       </c>
       <c r="AN205" t="s" s="2">
-        <v>776</v>
+        <v>109</v>
       </c>
       <c r="AO205" t="s" s="2">
-        <v>777</v>
+        <v>79</v>
       </c>
       <c r="AP205" t="s" s="2">
         <v>79</v>
@@ -27642,10 +27723,10 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>778</v>
+        <v>767</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>778</v>
+        <v>714</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -27653,10 +27734,10 @@
       </c>
       <c r="E206" s="2"/>
       <c r="F206" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G206" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H206" t="s" s="2">
         <v>79</v>
@@ -27665,21 +27746,19 @@
         <v>79</v>
       </c>
       <c r="J206" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>779</v>
+        <v>112</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>780</v>
+        <v>205</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>781</v>
+        <v>206</v>
       </c>
       <c r="N206" s="2"/>
-      <c r="O206" t="s" s="2">
-        <v>782</v>
-      </c>
+      <c r="O206" s="2"/>
       <c r="P206" t="s" s="2">
         <v>79</v>
       </c>
@@ -27715,31 +27794,31 @@
         <v>79</v>
       </c>
       <c r="AB206" t="s" s="2">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="AC206" t="s" s="2">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="AD206" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE206" t="s" s="2">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="AF206" t="s" s="2">
-        <v>778</v>
+        <v>119</v>
       </c>
       <c r="AG206" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH206" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI206" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ206" t="s" s="2">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="AK206" t="s" s="2">
         <v>79</v>
@@ -27748,13 +27827,13 @@
         <v>79</v>
       </c>
       <c r="AM206" t="s" s="2">
-        <v>535</v>
+        <v>79</v>
       </c>
       <c r="AN206" t="s" s="2">
-        <v>783</v>
+        <v>79</v>
       </c>
       <c r="AO206" t="s" s="2">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="AP206" t="s" s="2">
         <v>79</v>
@@ -27762,18 +27841,20 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>784</v>
+        <v>768</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>784</v>
-      </c>
-      <c r="C207" s="2"/>
+        <v>714</v>
+      </c>
+      <c r="C207" t="s" s="2">
+        <v>716</v>
+      </c>
       <c r="D207" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E207" s="2"/>
       <c r="F207" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G207" t="s" s="2">
         <v>91</v>
@@ -27788,13 +27869,13 @@
         <v>79</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>105</v>
+        <v>717</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>106</v>
+        <v>718</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>107</v>
+        <v>719</v>
       </c>
       <c r="N207" s="2"/>
       <c r="O207" s="2"/>
@@ -27845,19 +27926,19 @@
         <v>79</v>
       </c>
       <c r="AF207" t="s" s="2">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="AG207" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH207" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI207" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ207" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="AK207" t="s" s="2">
         <v>79</v>
@@ -27869,7 +27950,7 @@
         <v>79</v>
       </c>
       <c r="AN207" t="s" s="2">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="AO207" t="s" s="2">
         <v>79</v>
@@ -27880,21 +27961,21 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>785</v>
+        <v>769</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>785</v>
+        <v>770</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="E208" s="2"/>
       <c r="F208" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G208" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H208" t="s" s="2">
         <v>79</v>
@@ -27906,17 +27987,15 @@
         <v>79</v>
       </c>
       <c r="K208" t="s" s="2">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N208" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="N208" s="2"/>
       <c r="O208" s="2"/>
       <c r="P208" t="s" s="2">
         <v>79</v>
@@ -27953,31 +28032,31 @@
         <v>79</v>
       </c>
       <c r="AB208" t="s" s="2">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="AC208" t="s" s="2">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="AD208" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE208" t="s" s="2">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="AF208" t="s" s="2">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="AG208" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH208" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI208" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ208" t="s" s="2">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="AK208" t="s" s="2">
         <v>79</v>
@@ -28000,10 +28079,10 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>786</v>
+        <v>772</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -28014,7 +28093,7 @@
         <v>80</v>
       </c>
       <c r="G209" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H209" t="s" s="2">
         <v>79</v>
@@ -28023,20 +28102,18 @@
         <v>79</v>
       </c>
       <c r="J209" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>787</v>
+        <v>205</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>788</v>
-      </c>
-      <c r="N209" t="s" s="2">
-        <v>789</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="N209" s="2"/>
       <c r="O209" s="2"/>
       <c r="P209" t="s" s="2">
         <v>79</v>
@@ -28073,31 +28150,31 @@
         <v>79</v>
       </c>
       <c r="AB209" t="s" s="2">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="AC209" t="s" s="2">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="AD209" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE209" t="s" s="2">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="AF209" t="s" s="2">
-        <v>790</v>
+        <v>119</v>
       </c>
       <c r="AG209" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH209" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI209" t="s" s="2">
-        <v>791</v>
+        <v>79</v>
       </c>
       <c r="AJ209" t="s" s="2">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="AK209" t="s" s="2">
         <v>79</v>
@@ -28109,7 +28186,7 @@
         <v>79</v>
       </c>
       <c r="AN209" t="s" s="2">
-        <v>203</v>
+        <v>79</v>
       </c>
       <c r="AO209" t="s" s="2">
         <v>79</v>
@@ -28120,10 +28197,10 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>792</v>
+        <v>773</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>792</v>
+        <v>774</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -28131,7 +28208,7 @@
       </c>
       <c r="E210" s="2"/>
       <c r="F210" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G210" t="s" s="2">
         <v>91</v>
@@ -28143,19 +28220,19 @@
         <v>79</v>
       </c>
       <c r="J210" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K210" t="s" s="2">
         <v>138</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>793</v>
+        <v>227</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>794</v>
+        <v>228</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>795</v>
+        <v>229</v>
       </c>
       <c r="O210" s="2"/>
       <c r="P210" t="s" s="2">
@@ -28163,7 +28240,7 @@
       </c>
       <c r="Q210" s="2"/>
       <c r="R210" t="s" s="2">
-        <v>79</v>
+        <v>775</v>
       </c>
       <c r="S210" t="s" s="2">
         <v>79</v>
@@ -28181,11 +28258,13 @@
         <v>79</v>
       </c>
       <c r="X210" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="Y210" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y210" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z210" t="s" s="2">
-        <v>553</v>
+        <v>79</v>
       </c>
       <c r="AA210" t="s" s="2">
         <v>79</v>
@@ -28203,10 +28282,10 @@
         <v>79</v>
       </c>
       <c r="AF210" t="s" s="2">
-        <v>796</v>
+        <v>231</v>
       </c>
       <c r="AG210" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH210" t="s" s="2">
         <v>91</v>
@@ -28215,7 +28294,7 @@
         <v>79</v>
       </c>
       <c r="AJ210" t="s" s="2">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="AK210" t="s" s="2">
         <v>79</v>
@@ -28238,10 +28317,10 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>797</v>
+        <v>776</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>797</v>
+        <v>777</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -28261,20 +28340,18 @@
         <v>79</v>
       </c>
       <c r="J211" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>307</v>
+        <v>158</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>798</v>
+        <v>235</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>799</v>
-      </c>
-      <c r="N211" t="s" s="2">
-        <v>800</v>
-      </c>
+        <v>572</v>
+      </c>
+      <c r="N211" s="2"/>
       <c r="O211" s="2"/>
       <c r="P211" t="s" s="2">
         <v>79</v>
@@ -28284,7 +28361,7 @@
         <v>79</v>
       </c>
       <c r="S211" t="s" s="2">
-        <v>79</v>
+        <v>778</v>
       </c>
       <c r="T211" t="s" s="2">
         <v>79</v>
@@ -28299,13 +28376,11 @@
         <v>79</v>
       </c>
       <c r="X211" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y211" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="Y211" s="2"/>
       <c r="Z211" t="s" s="2">
-        <v>79</v>
+        <v>779</v>
       </c>
       <c r="AA211" t="s" s="2">
         <v>79</v>
@@ -28323,7 +28398,7 @@
         <v>79</v>
       </c>
       <c r="AF211" t="s" s="2">
-        <v>801</v>
+        <v>237</v>
       </c>
       <c r="AG211" t="s" s="2">
         <v>80</v>
@@ -28347,7 +28422,7 @@
         <v>79</v>
       </c>
       <c r="AN211" t="s" s="2">
-        <v>802</v>
+        <v>203</v>
       </c>
       <c r="AO211" t="s" s="2">
         <v>79</v>
@@ -28358,12 +28433,14 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>803</v>
+        <v>780</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>803</v>
-      </c>
-      <c r="C212" s="2"/>
+        <v>714</v>
+      </c>
+      <c r="C212" t="s" s="2">
+        <v>781</v>
+      </c>
       <c r="D212" t="s" s="2">
         <v>79</v>
       </c>
@@ -28381,20 +28458,18 @@
         <v>79</v>
       </c>
       <c r="J212" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>105</v>
+        <v>782</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>804</v>
+        <v>783</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>805</v>
-      </c>
-      <c r="N212" t="s" s="2">
-        <v>806</v>
-      </c>
+        <v>784</v>
+      </c>
+      <c r="N212" s="2"/>
       <c r="O212" s="2"/>
       <c r="P212" t="s" s="2">
         <v>79</v>
@@ -28443,19 +28518,19 @@
         <v>79</v>
       </c>
       <c r="AF212" t="s" s="2">
-        <v>807</v>
+        <v>119</v>
       </c>
       <c r="AG212" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH212" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI212" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ212" t="s" s="2">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="AK212" t="s" s="2">
         <v>79</v>
@@ -28467,7 +28542,7 @@
         <v>79</v>
       </c>
       <c r="AN212" t="s" s="2">
-        <v>203</v>
+        <v>79</v>
       </c>
       <c r="AO212" t="s" s="2">
         <v>79</v>
@@ -28478,10 +28553,10 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>808</v>
+        <v>785</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>808</v>
+        <v>720</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -28489,10 +28564,10 @@
       </c>
       <c r="E213" s="2"/>
       <c r="F213" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G213" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H213" t="s" s="2">
         <v>79</v>
@@ -28501,23 +28576,19 @@
         <v>79</v>
       </c>
       <c r="J213" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>809</v>
+        <v>180</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>810</v>
+        <v>721</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>811</v>
-      </c>
-      <c r="N213" t="s" s="2">
-        <v>812</v>
-      </c>
-      <c r="O213" t="s" s="2">
-        <v>813</v>
-      </c>
+        <v>722</v>
+      </c>
+      <c r="N213" s="2"/>
+      <c r="O213" s="2"/>
       <c r="P213" t="s" s="2">
         <v>79</v>
       </c>
@@ -28526,7 +28597,7 @@
         <v>79</v>
       </c>
       <c r="S213" t="s" s="2">
-        <v>79</v>
+        <v>786</v>
       </c>
       <c r="T213" t="s" s="2">
         <v>79</v>
@@ -28541,13 +28612,13 @@
         <v>79</v>
       </c>
       <c r="X213" t="s" s="2">
-        <v>79</v>
+        <v>334</v>
       </c>
       <c r="Y213" t="s" s="2">
-        <v>79</v>
+        <v>723</v>
       </c>
       <c r="Z213" t="s" s="2">
-        <v>79</v>
+        <v>724</v>
       </c>
       <c r="AA213" t="s" s="2">
         <v>79</v>
@@ -28565,16 +28636,16 @@
         <v>79</v>
       </c>
       <c r="AF213" t="s" s="2">
-        <v>808</v>
+        <v>725</v>
       </c>
       <c r="AG213" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH213" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI213" t="s" s="2">
-        <v>79</v>
+        <v>726</v>
       </c>
       <c r="AJ213" t="s" s="2">
         <v>103</v>
@@ -28586,13 +28657,13 @@
         <v>79</v>
       </c>
       <c r="AM213" t="s" s="2">
-        <v>79</v>
+        <v>727</v>
       </c>
       <c r="AN213" t="s" s="2">
-        <v>814</v>
+        <v>728</v>
       </c>
       <c r="AO213" t="s" s="2">
-        <v>79</v>
+        <v>729</v>
       </c>
       <c r="AP213" t="s" s="2">
         <v>79</v>
@@ -28600,10 +28671,10 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>815</v>
+        <v>787</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>815</v>
+        <v>730</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -28611,31 +28682,35 @@
       </c>
       <c r="E214" s="2"/>
       <c r="F214" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G214" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H214" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="I214" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J214" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K214" t="s" s="2">
         <v>105</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>106</v>
+        <v>788</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N214" s="2"/>
-      <c r="O214" s="2"/>
+        <v>732</v>
+      </c>
+      <c r="N214" t="s" s="2">
+        <v>733</v>
+      </c>
+      <c r="O214" t="s" s="2">
+        <v>734</v>
+      </c>
       <c r="P214" t="s" s="2">
         <v>79</v>
       </c>
@@ -28683,7 +28758,7 @@
         <v>79</v>
       </c>
       <c r="AF214" t="s" s="2">
-        <v>108</v>
+        <v>735</v>
       </c>
       <c r="AG214" t="s" s="2">
         <v>80</v>
@@ -28695,7 +28770,7 @@
         <v>79</v>
       </c>
       <c r="AJ214" t="s" s="2">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="AK214" t="s" s="2">
         <v>79</v>
@@ -28704,13 +28779,13 @@
         <v>79</v>
       </c>
       <c r="AM214" t="s" s="2">
-        <v>79</v>
+        <v>736</v>
       </c>
       <c r="AN214" t="s" s="2">
-        <v>109</v>
+        <v>737</v>
       </c>
       <c r="AO214" t="s" s="2">
-        <v>79</v>
+        <v>372</v>
       </c>
       <c r="AP214" t="s" s="2">
         <v>79</v>
@@ -28718,44 +28793,46 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>816</v>
+        <v>789</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>816</v>
+        <v>738</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="E215" s="2"/>
       <c r="F215" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G215" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H215" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I215" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="J215" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>112</v>
+        <v>180</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>113</v>
+        <v>739</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>114</v>
+        <v>740</v>
       </c>
       <c r="N215" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="O215" s="2"/>
+        <v>790</v>
+      </c>
+      <c r="O215" t="s" s="2">
+        <v>742</v>
+      </c>
       <c r="P215" t="s" s="2">
         <v>79</v>
       </c>
@@ -28779,13 +28856,13 @@
         <v>79</v>
       </c>
       <c r="X215" t="s" s="2">
-        <v>79</v>
+        <v>334</v>
       </c>
       <c r="Y215" t="s" s="2">
-        <v>79</v>
+        <v>743</v>
       </c>
       <c r="Z215" t="s" s="2">
-        <v>79</v>
+        <v>744</v>
       </c>
       <c r="AA215" t="s" s="2">
         <v>79</v>
@@ -28803,19 +28880,19 @@
         <v>79</v>
       </c>
       <c r="AF215" t="s" s="2">
-        <v>119</v>
+        <v>745</v>
       </c>
       <c r="AG215" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH215" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI215" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ215" t="s" s="2">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="AK215" t="s" s="2">
         <v>79</v>
@@ -28824,13 +28901,13 @@
         <v>79</v>
       </c>
       <c r="AM215" t="s" s="2">
-        <v>79</v>
+        <v>746</v>
       </c>
       <c r="AN215" t="s" s="2">
-        <v>109</v>
+        <v>747</v>
       </c>
       <c r="AO215" t="s" s="2">
-        <v>79</v>
+        <v>748</v>
       </c>
       <c r="AP215" t="s" s="2">
         <v>79</v>
@@ -28838,46 +28915,44 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>817</v>
+        <v>791</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>817</v>
+        <v>749</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
-        <v>818</v>
+        <v>79</v>
       </c>
       <c r="E216" s="2"/>
       <c r="F216" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G216" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H216" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I216" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="J216" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>112</v>
+        <v>750</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>819</v>
+        <v>751</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>820</v>
+        <v>752</v>
       </c>
       <c r="N216" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="O216" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>753</v>
+      </c>
+      <c r="O216" s="2"/>
       <c r="P216" t="s" s="2">
         <v>79</v>
       </c>
@@ -28925,19 +29000,19 @@
         <v>79</v>
       </c>
       <c r="AF216" t="s" s="2">
-        <v>821</v>
+        <v>754</v>
       </c>
       <c r="AG216" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH216" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI216" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ216" t="s" s="2">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="AK216" t="s" s="2">
         <v>79</v>
@@ -28946,10 +29021,10 @@
         <v>79</v>
       </c>
       <c r="AM216" t="s" s="2">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="AN216" t="s" s="2">
-        <v>203</v>
+        <v>109</v>
       </c>
       <c r="AO216" t="s" s="2">
         <v>79</v>
@@ -28960,10 +29035,10 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>822</v>
+        <v>792</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>822</v>
+        <v>755</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -28983,21 +29058,19 @@
         <v>79</v>
       </c>
       <c r="J217" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>341</v>
+        <v>234</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>823</v>
+        <v>756</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>824</v>
+        <v>757</v>
       </c>
       <c r="N217" s="2"/>
-      <c r="O217" t="s" s="2">
-        <v>825</v>
-      </c>
+      <c r="O217" s="2"/>
       <c r="P217" t="s" s="2">
         <v>79</v>
       </c>
@@ -29021,13 +29094,13 @@
         <v>79</v>
       </c>
       <c r="X217" t="s" s="2">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="Y217" t="s" s="2">
-        <v>826</v>
+        <v>79</v>
       </c>
       <c r="Z217" t="s" s="2">
-        <v>827</v>
+        <v>79</v>
       </c>
       <c r="AA217" t="s" s="2">
         <v>79</v>
@@ -29045,7 +29118,7 @@
         <v>79</v>
       </c>
       <c r="AF217" t="s" s="2">
-        <v>822</v>
+        <v>758</v>
       </c>
       <c r="AG217" t="s" s="2">
         <v>80</v>
@@ -29066,13 +29139,13 @@
         <v>79</v>
       </c>
       <c r="AM217" t="s" s="2">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="AN217" t="s" s="2">
-        <v>828</v>
+        <v>759</v>
       </c>
       <c r="AO217" t="s" s="2">
-        <v>79</v>
+        <v>380</v>
       </c>
       <c r="AP217" t="s" s="2">
         <v>79</v>
@@ -29080,10 +29153,10 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>829</v>
+        <v>793</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>829</v>
+        <v>793</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
@@ -29094,10 +29167,10 @@
         <v>80</v>
       </c>
       <c r="G218" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H218" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="I218" t="s" s="2">
         <v>79</v>
@@ -29106,17 +29179,19 @@
         <v>79</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>830</v>
+        <v>794</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>831</v>
+        <v>795</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>832</v>
-      </c>
-      <c r="N218" s="2"/>
+        <v>796</v>
+      </c>
+      <c r="N218" t="s" s="2">
+        <v>797</v>
+      </c>
       <c r="O218" t="s" s="2">
-        <v>833</v>
+        <v>798</v>
       </c>
       <c r="P218" t="s" s="2">
         <v>79</v>
@@ -29165,34 +29240,34 @@
         <v>79</v>
       </c>
       <c r="AF218" t="s" s="2">
-        <v>829</v>
+        <v>793</v>
       </c>
       <c r="AG218" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH218" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI218" t="s" s="2">
-        <v>79</v>
+        <v>212</v>
       </c>
       <c r="AJ218" t="s" s="2">
-        <v>103</v>
+        <v>799</v>
       </c>
       <c r="AK218" t="s" s="2">
-        <v>79</v>
+        <v>800</v>
       </c>
       <c r="AL218" t="s" s="2">
-        <v>79</v>
+        <v>801</v>
       </c>
       <c r="AM218" t="s" s="2">
-        <v>834</v>
+        <v>802</v>
       </c>
       <c r="AN218" t="s" s="2">
-        <v>835</v>
+        <v>803</v>
       </c>
       <c r="AO218" t="s" s="2">
-        <v>79</v>
+        <v>804</v>
       </c>
       <c r="AP218" t="s" s="2">
         <v>79</v>
@@ -29200,10 +29275,10 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>836</v>
+        <v>805</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>836</v>
+        <v>805</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -29214,7 +29289,7 @@
         <v>80</v>
       </c>
       <c r="G219" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H219" t="s" s="2">
         <v>79</v>
@@ -29223,20 +29298,20 @@
         <v>79</v>
       </c>
       <c r="J219" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>701</v>
+        <v>806</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>837</v>
+        <v>807</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>703</v>
+        <v>808</v>
       </c>
       <c r="N219" s="2"/>
       <c r="O219" t="s" s="2">
-        <v>838</v>
+        <v>809</v>
       </c>
       <c r="P219" t="s" s="2">
         <v>79</v>
@@ -29285,19 +29360,19 @@
         <v>79</v>
       </c>
       <c r="AF219" t="s" s="2">
-        <v>836</v>
+        <v>805</v>
       </c>
       <c r="AG219" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH219" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI219" t="s" s="2">
-        <v>212</v>
+        <v>79</v>
       </c>
       <c r="AJ219" t="s" s="2">
-        <v>839</v>
+        <v>103</v>
       </c>
       <c r="AK219" t="s" s="2">
         <v>79</v>
@@ -29306,13 +29381,13 @@
         <v>79</v>
       </c>
       <c r="AM219" t="s" s="2">
-        <v>710</v>
+        <v>535</v>
       </c>
       <c r="AN219" t="s" s="2">
-        <v>711</v>
+        <v>810</v>
       </c>
       <c r="AO219" t="s" s="2">
-        <v>712</v>
+        <v>109</v>
       </c>
       <c r="AP219" t="s" s="2">
         <v>79</v>
@@ -29320,10 +29395,10 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>840</v>
+        <v>811</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>840</v>
+        <v>811</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -29346,20 +29421,16 @@
         <v>79</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>841</v>
+        <v>105</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>842</v>
+        <v>106</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>769</v>
-      </c>
-      <c r="N220" t="s" s="2">
-        <v>770</v>
-      </c>
-      <c r="O220" t="s" s="2">
-        <v>843</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="N220" s="2"/>
+      <c r="O220" s="2"/>
       <c r="P220" t="s" s="2">
         <v>79</v>
       </c>
@@ -29407,7 +29478,7 @@
         <v>79</v>
       </c>
       <c r="AF220" t="s" s="2">
-        <v>840</v>
+        <v>108</v>
       </c>
       <c r="AG220" t="s" s="2">
         <v>80</v>
@@ -29416,10 +29487,10 @@
         <v>91</v>
       </c>
       <c r="AI220" t="s" s="2">
-        <v>212</v>
+        <v>79</v>
       </c>
       <c r="AJ220" t="s" s="2">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="AK220" t="s" s="2">
         <v>79</v>
@@ -29428,13 +29499,13 @@
         <v>79</v>
       </c>
       <c r="AM220" t="s" s="2">
-        <v>775</v>
+        <v>79</v>
       </c>
       <c r="AN220" t="s" s="2">
-        <v>776</v>
+        <v>109</v>
       </c>
       <c r="AO220" t="s" s="2">
-        <v>777</v>
+        <v>79</v>
       </c>
       <c r="AP220" t="s" s="2">
         <v>79</v>
@@ -29442,14 +29513,14 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>844</v>
+        <v>812</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>844</v>
+        <v>812</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="E221" s="2"/>
       <c r="F221" t="s" s="2">
@@ -29459,7 +29530,7 @@
         <v>81</v>
       </c>
       <c r="H221" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I221" t="s" s="2">
         <v>79</v>
@@ -29468,18 +29539,18 @@
         <v>79</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>845</v>
+        <v>112</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>846</v>
+        <v>113</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>847</v>
-      </c>
-      <c r="N221" s="2"/>
-      <c r="O221" t="s" s="2">
-        <v>848</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="N221" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="O221" s="2"/>
       <c r="P221" t="s" s="2">
         <v>79</v>
       </c>
@@ -29515,19 +29586,19 @@
         <v>79</v>
       </c>
       <c r="AB221" t="s" s="2">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="AC221" t="s" s="2">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="AD221" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE221" t="s" s="2">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="AF221" t="s" s="2">
-        <v>844</v>
+        <v>119</v>
       </c>
       <c r="AG221" t="s" s="2">
         <v>80</v>
@@ -29539,7 +29610,7 @@
         <v>79</v>
       </c>
       <c r="AJ221" t="s" s="2">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="AK221" t="s" s="2">
         <v>79</v>
@@ -29560,8 +29631,1570 @@
         <v>79</v>
       </c>
     </row>
+    <row r="222" hidden="true">
+      <c r="A222" t="s" s="2">
+        <v>813</v>
+      </c>
+      <c r="B222" t="s" s="2">
+        <v>813</v>
+      </c>
+      <c r="C222" s="2"/>
+      <c r="D222" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E222" s="2"/>
+      <c r="F222" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G222" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H222" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I222" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J222" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K222" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L222" t="s" s="2">
+        <v>814</v>
+      </c>
+      <c r="M222" t="s" s="2">
+        <v>815</v>
+      </c>
+      <c r="N222" t="s" s="2">
+        <v>816</v>
+      </c>
+      <c r="O222" s="2"/>
+      <c r="P222" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q222" s="2"/>
+      <c r="R222" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S222" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T222" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U222" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V222" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W222" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X222" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y222" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z222" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA222" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB222" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC222" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD222" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE222" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF222" t="s" s="2">
+        <v>817</v>
+      </c>
+      <c r="AG222" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH222" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI222" t="s" s="2">
+        <v>818</v>
+      </c>
+      <c r="AJ222" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK222" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL222" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM222" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN222" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AO222" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP222" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="223" hidden="true">
+      <c r="A223" t="s" s="2">
+        <v>819</v>
+      </c>
+      <c r="B223" t="s" s="2">
+        <v>819</v>
+      </c>
+      <c r="C223" s="2"/>
+      <c r="D223" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E223" s="2"/>
+      <c r="F223" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G223" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H223" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I223" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J223" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K223" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L223" t="s" s="2">
+        <v>820</v>
+      </c>
+      <c r="M223" t="s" s="2">
+        <v>821</v>
+      </c>
+      <c r="N223" t="s" s="2">
+        <v>822</v>
+      </c>
+      <c r="O223" s="2"/>
+      <c r="P223" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q223" s="2"/>
+      <c r="R223" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S223" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T223" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U223" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V223" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W223" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X223" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="Y223" s="2"/>
+      <c r="Z223" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AA223" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB223" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC223" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD223" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE223" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF223" t="s" s="2">
+        <v>823</v>
+      </c>
+      <c r="AG223" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH223" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI223" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ223" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK223" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL223" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM223" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN223" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AO223" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP223" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="224" hidden="true">
+      <c r="A224" t="s" s="2">
+        <v>824</v>
+      </c>
+      <c r="B224" t="s" s="2">
+        <v>824</v>
+      </c>
+      <c r="C224" s="2"/>
+      <c r="D224" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E224" s="2"/>
+      <c r="F224" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G224" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H224" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I224" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J224" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K224" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L224" t="s" s="2">
+        <v>825</v>
+      </c>
+      <c r="M224" t="s" s="2">
+        <v>826</v>
+      </c>
+      <c r="N224" t="s" s="2">
+        <v>827</v>
+      </c>
+      <c r="O224" s="2"/>
+      <c r="P224" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q224" s="2"/>
+      <c r="R224" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S224" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T224" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U224" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V224" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W224" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X224" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y224" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z224" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA224" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB224" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC224" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD224" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE224" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF224" t="s" s="2">
+        <v>828</v>
+      </c>
+      <c r="AG224" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH224" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI224" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ224" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK224" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL224" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM224" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN224" t="s" s="2">
+        <v>829</v>
+      </c>
+      <c r="AO224" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP224" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="225" hidden="true">
+      <c r="A225" t="s" s="2">
+        <v>830</v>
+      </c>
+      <c r="B225" t="s" s="2">
+        <v>830</v>
+      </c>
+      <c r="C225" s="2"/>
+      <c r="D225" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E225" s="2"/>
+      <c r="F225" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G225" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H225" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I225" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J225" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K225" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L225" t="s" s="2">
+        <v>831</v>
+      </c>
+      <c r="M225" t="s" s="2">
+        <v>832</v>
+      </c>
+      <c r="N225" t="s" s="2">
+        <v>833</v>
+      </c>
+      <c r="O225" s="2"/>
+      <c r="P225" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q225" s="2"/>
+      <c r="R225" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S225" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T225" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U225" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V225" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W225" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X225" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y225" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z225" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA225" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB225" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC225" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD225" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE225" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF225" t="s" s="2">
+        <v>834</v>
+      </c>
+      <c r="AG225" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH225" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI225" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ225" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK225" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL225" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM225" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN225" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AO225" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP225" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="226" hidden="true">
+      <c r="A226" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B226" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="C226" s="2"/>
+      <c r="D226" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E226" s="2"/>
+      <c r="F226" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G226" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H226" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I226" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J226" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K226" t="s" s="2">
+        <v>836</v>
+      </c>
+      <c r="L226" t="s" s="2">
+        <v>837</v>
+      </c>
+      <c r="M226" t="s" s="2">
+        <v>838</v>
+      </c>
+      <c r="N226" t="s" s="2">
+        <v>839</v>
+      </c>
+      <c r="O226" t="s" s="2">
+        <v>840</v>
+      </c>
+      <c r="P226" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q226" s="2"/>
+      <c r="R226" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S226" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T226" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U226" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V226" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W226" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X226" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y226" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z226" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA226" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB226" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC226" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD226" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE226" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF226" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="AG226" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH226" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI226" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ226" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK226" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL226" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM226" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN226" t="s" s="2">
+        <v>841</v>
+      </c>
+      <c r="AO226" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP226" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="227" hidden="true">
+      <c r="A227" t="s" s="2">
+        <v>842</v>
+      </c>
+      <c r="B227" t="s" s="2">
+        <v>842</v>
+      </c>
+      <c r="C227" s="2"/>
+      <c r="D227" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E227" s="2"/>
+      <c r="F227" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G227" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H227" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I227" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J227" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K227" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L227" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="M227" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="N227" s="2"/>
+      <c r="O227" s="2"/>
+      <c r="P227" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q227" s="2"/>
+      <c r="R227" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S227" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T227" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U227" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V227" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W227" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X227" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y227" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z227" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA227" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB227" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC227" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD227" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE227" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF227" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AG227" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH227" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI227" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ227" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK227" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL227" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM227" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN227" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AO227" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP227" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="228" hidden="true">
+      <c r="A228" t="s" s="2">
+        <v>843</v>
+      </c>
+      <c r="B228" t="s" s="2">
+        <v>843</v>
+      </c>
+      <c r="C228" s="2"/>
+      <c r="D228" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="E228" s="2"/>
+      <c r="F228" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G228" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H228" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I228" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J228" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K228" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L228" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="M228" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="N228" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="O228" s="2"/>
+      <c r="P228" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q228" s="2"/>
+      <c r="R228" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S228" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T228" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U228" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V228" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W228" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X228" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y228" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z228" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA228" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB228" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC228" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD228" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE228" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF228" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG228" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH228" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI228" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ228" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AK228" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL228" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM228" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN228" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AO228" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP228" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="229" hidden="true">
+      <c r="A229" t="s" s="2">
+        <v>844</v>
+      </c>
+      <c r="B229" t="s" s="2">
+        <v>844</v>
+      </c>
+      <c r="C229" s="2"/>
+      <c r="D229" t="s" s="2">
+        <v>845</v>
+      </c>
+      <c r="E229" s="2"/>
+      <c r="F229" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G229" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H229" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I229" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="J229" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K229" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L229" t="s" s="2">
+        <v>846</v>
+      </c>
+      <c r="M229" t="s" s="2">
+        <v>847</v>
+      </c>
+      <c r="N229" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="O229" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="P229" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q229" s="2"/>
+      <c r="R229" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S229" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T229" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U229" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V229" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W229" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X229" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y229" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z229" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA229" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB229" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC229" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD229" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE229" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF229" t="s" s="2">
+        <v>848</v>
+      </c>
+      <c r="AG229" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH229" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI229" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ229" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AK229" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL229" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM229" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN229" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AO229" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP229" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="230" hidden="true">
+      <c r="A230" t="s" s="2">
+        <v>849</v>
+      </c>
+      <c r="B230" t="s" s="2">
+        <v>849</v>
+      </c>
+      <c r="C230" s="2"/>
+      <c r="D230" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E230" s="2"/>
+      <c r="F230" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G230" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H230" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I230" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J230" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K230" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L230" t="s" s="2">
+        <v>850</v>
+      </c>
+      <c r="M230" t="s" s="2">
+        <v>851</v>
+      </c>
+      <c r="N230" s="2"/>
+      <c r="O230" t="s" s="2">
+        <v>852</v>
+      </c>
+      <c r="P230" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q230" s="2"/>
+      <c r="R230" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S230" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T230" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U230" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V230" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W230" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X230" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="Y230" t="s" s="2">
+        <v>853</v>
+      </c>
+      <c r="Z230" t="s" s="2">
+        <v>854</v>
+      </c>
+      <c r="AA230" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB230" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC230" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD230" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE230" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF230" t="s" s="2">
+        <v>849</v>
+      </c>
+      <c r="AG230" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH230" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI230" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ230" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK230" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL230" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM230" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN230" t="s" s="2">
+        <v>855</v>
+      </c>
+      <c r="AO230" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP230" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="231" hidden="true">
+      <c r="A231" t="s" s="2">
+        <v>856</v>
+      </c>
+      <c r="B231" t="s" s="2">
+        <v>856</v>
+      </c>
+      <c r="C231" s="2"/>
+      <c r="D231" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E231" s="2"/>
+      <c r="F231" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G231" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H231" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I231" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J231" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K231" t="s" s="2">
+        <v>857</v>
+      </c>
+      <c r="L231" t="s" s="2">
+        <v>858</v>
+      </c>
+      <c r="M231" t="s" s="2">
+        <v>859</v>
+      </c>
+      <c r="N231" s="2"/>
+      <c r="O231" t="s" s="2">
+        <v>860</v>
+      </c>
+      <c r="P231" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q231" s="2"/>
+      <c r="R231" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S231" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T231" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U231" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V231" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W231" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X231" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y231" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z231" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA231" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB231" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC231" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD231" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE231" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF231" t="s" s="2">
+        <v>856</v>
+      </c>
+      <c r="AG231" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH231" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI231" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ231" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK231" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL231" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM231" t="s" s="2">
+        <v>861</v>
+      </c>
+      <c r="AN231" t="s" s="2">
+        <v>862</v>
+      </c>
+      <c r="AO231" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP231" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="232" hidden="true">
+      <c r="A232" t="s" s="2">
+        <v>863</v>
+      </c>
+      <c r="B232" t="s" s="2">
+        <v>863</v>
+      </c>
+      <c r="C232" s="2"/>
+      <c r="D232" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E232" s="2"/>
+      <c r="F232" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G232" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H232" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I232" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J232" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K232" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="L232" t="s" s="2">
+        <v>864</v>
+      </c>
+      <c r="M232" t="s" s="2">
+        <v>703</v>
+      </c>
+      <c r="N232" s="2"/>
+      <c r="O232" t="s" s="2">
+        <v>865</v>
+      </c>
+      <c r="P232" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q232" s="2"/>
+      <c r="R232" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S232" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T232" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U232" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V232" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W232" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X232" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y232" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z232" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA232" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB232" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC232" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD232" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE232" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF232" t="s" s="2">
+        <v>863</v>
+      </c>
+      <c r="AG232" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH232" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI232" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AJ232" t="s" s="2">
+        <v>866</v>
+      </c>
+      <c r="AK232" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL232" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM232" t="s" s="2">
+        <v>710</v>
+      </c>
+      <c r="AN232" t="s" s="2">
+        <v>711</v>
+      </c>
+      <c r="AO232" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="AP232" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="233" hidden="true">
+      <c r="A233" t="s" s="2">
+        <v>867</v>
+      </c>
+      <c r="B233" t="s" s="2">
+        <v>867</v>
+      </c>
+      <c r="C233" s="2"/>
+      <c r="D233" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E233" s="2"/>
+      <c r="F233" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G233" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H233" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I233" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J233" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K233" t="s" s="2">
+        <v>868</v>
+      </c>
+      <c r="L233" t="s" s="2">
+        <v>869</v>
+      </c>
+      <c r="M233" t="s" s="2">
+        <v>796</v>
+      </c>
+      <c r="N233" t="s" s="2">
+        <v>797</v>
+      </c>
+      <c r="O233" t="s" s="2">
+        <v>870</v>
+      </c>
+      <c r="P233" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q233" s="2"/>
+      <c r="R233" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S233" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T233" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U233" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V233" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W233" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X233" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y233" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z233" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA233" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB233" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC233" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD233" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE233" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF233" t="s" s="2">
+        <v>867</v>
+      </c>
+      <c r="AG233" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH233" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI233" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AJ233" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK233" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL233" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM233" t="s" s="2">
+        <v>802</v>
+      </c>
+      <c r="AN233" t="s" s="2">
+        <v>803</v>
+      </c>
+      <c r="AO233" t="s" s="2">
+        <v>804</v>
+      </c>
+      <c r="AP233" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="234" hidden="true">
+      <c r="A234" t="s" s="2">
+        <v>871</v>
+      </c>
+      <c r="B234" t="s" s="2">
+        <v>871</v>
+      </c>
+      <c r="C234" s="2"/>
+      <c r="D234" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E234" s="2"/>
+      <c r="F234" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G234" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H234" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="I234" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J234" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K234" t="s" s="2">
+        <v>872</v>
+      </c>
+      <c r="L234" t="s" s="2">
+        <v>873</v>
+      </c>
+      <c r="M234" t="s" s="2">
+        <v>874</v>
+      </c>
+      <c r="N234" s="2"/>
+      <c r="O234" t="s" s="2">
+        <v>875</v>
+      </c>
+      <c r="P234" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q234" s="2"/>
+      <c r="R234" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S234" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T234" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U234" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V234" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W234" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X234" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y234" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z234" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA234" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB234" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC234" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD234" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE234" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF234" t="s" s="2">
+        <v>871</v>
+      </c>
+      <c r="AG234" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH234" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI234" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ234" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK234" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL234" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM234" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN234" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AO234" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP234" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AP221">
+  <autoFilter ref="A1:AP234">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -29571,7 +31204,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI220">
+  <conditionalFormatting sqref="A2:AI233">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-organization.xlsx
+++ b/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T08:40:33+00:00</t>
+    <t>2024-11-13T08:49:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-organization.xlsx
+++ b/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-organization.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$234</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$221</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8929" uniqueCount="876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8441" uniqueCount="849">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T08:49:07+00:00</t>
+    <t>2024-11-13T08:59:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2393,91 +2393,6 @@
   </si>
   <si>
     <t>EntiteGeographique.boiteLettreMSS</t>
-  </si>
-  <si>
-    <t>Organization.telecom:mailbox-mss.id</t>
-  </si>
-  <si>
-    <t>Organization.telecom:mailbox-mss.extension</t>
-  </si>
-  <si>
-    <t>Organization.telecom:mailbox-mss.extension:emailType</t>
-  </si>
-  <si>
-    <t>Organization.telecom:mailbox-mss.extension:emailType.id</t>
-  </si>
-  <si>
-    <t>Organization.telecom.extension.id</t>
-  </si>
-  <si>
-    <t>Organization.telecom:mailbox-mss.extension:emailType.extension</t>
-  </si>
-  <si>
-    <t>Organization.telecom.extension.extension</t>
-  </si>
-  <si>
-    <t>Organization.telecom:mailbox-mss.extension:emailType.url</t>
-  </si>
-  <si>
-    <t>Organization.telecom.extension.url</t>
-  </si>
-  <si>
-    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point-email-type</t>
-  </si>
-  <si>
-    <t>Organization.telecom:mailbox-mss.extension:emailType.value[x]</t>
-  </si>
-  <si>
-    <t>Organization.telecom.extension.value[x]</t>
-  </si>
-  <si>
-    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
-  &lt;system value="https://mos.esante.gouv.fr/NOS/TRE_R256-TypeMessagerie/FHIR/TRE-R256-TypeMessagerie"/&gt;
-  &lt;code value="MSSANTE"/&gt;
-&lt;/valueCoding&gt;</t>
-  </si>
-  <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-email-type</t>
-  </si>
-  <si>
-    <t>Organization.telecom:mailbox-mss.extension:as-mailbox-mss-metadata</t>
-  </si>
-  <si>
-    <t>as-mailbox-mss-metadata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-mailbox-mss-metadata}
-</t>
-  </si>
-  <si>
-    <t>Les attributs 'responsible' et 'phone' ne sont pas disponibles en accès libre.</t>
-  </si>
-  <si>
-    <t>Extension contenant les métadonnées de la mailbox mss.</t>
-  </si>
-  <si>
-    <t>Organization.telecom:mailbox-mss.system</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>Organization.telecom:mailbox-mss.value</t>
-  </si>
-  <si>
-    <t>Boîte Aux Lettres (BAL) MSS</t>
-  </si>
-  <si>
-    <t>Organization.telecom:mailbox-mss.use</t>
-  </si>
-  <si>
-    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>Organization.telecom:mailbox-mss.rank</t>
-  </si>
-  <si>
-    <t>Organization.telecom:mailbox-mss.period</t>
   </si>
   <si>
     <t>Organization.address</t>
@@ -3061,7 +2976,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP234"/>
+  <dimension ref="A1:AP221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -27608,7 +27523,7 @@
         <v>766</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>713</v>
+        <v>766</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -27619,10 +27534,10 @@
         <v>80</v>
       </c>
       <c r="G205" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H205" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="I205" t="s" s="2">
         <v>79</v>
@@ -27631,16 +27546,20 @@
         <v>79</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>105</v>
+        <v>767</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>106</v>
+        <v>768</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N205" s="2"/>
-      <c r="O205" s="2"/>
+        <v>769</v>
+      </c>
+      <c r="N205" t="s" s="2">
+        <v>770</v>
+      </c>
+      <c r="O205" t="s" s="2">
+        <v>771</v>
+      </c>
       <c r="P205" t="s" s="2">
         <v>79</v>
       </c>
@@ -27688,34 +27607,34 @@
         <v>79</v>
       </c>
       <c r="AF205" t="s" s="2">
-        <v>108</v>
+        <v>766</v>
       </c>
       <c r="AG205" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH205" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI205" t="s" s="2">
-        <v>79</v>
+        <v>212</v>
       </c>
       <c r="AJ205" t="s" s="2">
-        <v>79</v>
+        <v>772</v>
       </c>
       <c r="AK205" t="s" s="2">
-        <v>79</v>
+        <v>773</v>
       </c>
       <c r="AL205" t="s" s="2">
-        <v>79</v>
+        <v>774</v>
       </c>
       <c r="AM205" t="s" s="2">
-        <v>79</v>
+        <v>775</v>
       </c>
       <c r="AN205" t="s" s="2">
-        <v>109</v>
+        <v>776</v>
       </c>
       <c r="AO205" t="s" s="2">
-        <v>79</v>
+        <v>777</v>
       </c>
       <c r="AP205" t="s" s="2">
         <v>79</v>
@@ -27723,10 +27642,10 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>767</v>
+        <v>778</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>714</v>
+        <v>778</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -27734,10 +27653,10 @@
       </c>
       <c r="E206" s="2"/>
       <c r="F206" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G206" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H206" t="s" s="2">
         <v>79</v>
@@ -27746,19 +27665,21 @@
         <v>79</v>
       </c>
       <c r="J206" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>112</v>
+        <v>779</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>205</v>
+        <v>780</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>206</v>
+        <v>781</v>
       </c>
       <c r="N206" s="2"/>
-      <c r="O206" s="2"/>
+      <c r="O206" t="s" s="2">
+        <v>782</v>
+      </c>
       <c r="P206" t="s" s="2">
         <v>79</v>
       </c>
@@ -27794,31 +27715,31 @@
         <v>79</v>
       </c>
       <c r="AB206" t="s" s="2">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="AC206" t="s" s="2">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="AD206" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE206" t="s" s="2">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="AF206" t="s" s="2">
-        <v>119</v>
+        <v>778</v>
       </c>
       <c r="AG206" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH206" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI206" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ206" t="s" s="2">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="AK206" t="s" s="2">
         <v>79</v>
@@ -27827,13 +27748,13 @@
         <v>79</v>
       </c>
       <c r="AM206" t="s" s="2">
-        <v>79</v>
+        <v>535</v>
       </c>
       <c r="AN206" t="s" s="2">
-        <v>79</v>
+        <v>783</v>
       </c>
       <c r="AO206" t="s" s="2">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="AP206" t="s" s="2">
         <v>79</v>
@@ -27841,20 +27762,18 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>768</v>
+        <v>784</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>714</v>
-      </c>
-      <c r="C207" t="s" s="2">
-        <v>716</v>
-      </c>
+        <v>784</v>
+      </c>
+      <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E207" s="2"/>
       <c r="F207" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G207" t="s" s="2">
         <v>91</v>
@@ -27869,13 +27788,13 @@
         <v>79</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>717</v>
+        <v>105</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>718</v>
+        <v>106</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>719</v>
+        <v>107</v>
       </c>
       <c r="N207" s="2"/>
       <c r="O207" s="2"/>
@@ -27926,19 +27845,19 @@
         <v>79</v>
       </c>
       <c r="AF207" t="s" s="2">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="AG207" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH207" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI207" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ207" t="s" s="2">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="AK207" t="s" s="2">
         <v>79</v>
@@ -27950,7 +27869,7 @@
         <v>79</v>
       </c>
       <c r="AN207" t="s" s="2">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="AO207" t="s" s="2">
         <v>79</v>
@@ -27961,21 +27880,21 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>769</v>
+        <v>785</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>770</v>
+        <v>785</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="E208" s="2"/>
       <c r="F208" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G208" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H208" t="s" s="2">
         <v>79</v>
@@ -27987,15 +27906,17 @@
         <v>79</v>
       </c>
       <c r="K208" t="s" s="2">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N208" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="N208" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="O208" s="2"/>
       <c r="P208" t="s" s="2">
         <v>79</v>
@@ -28032,31 +27953,31 @@
         <v>79</v>
       </c>
       <c r="AB208" t="s" s="2">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="AC208" t="s" s="2">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="AD208" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE208" t="s" s="2">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="AF208" t="s" s="2">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="AG208" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH208" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI208" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ208" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="AK208" t="s" s="2">
         <v>79</v>
@@ -28079,10 +28000,10 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>771</v>
+        <v>786</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>772</v>
+        <v>786</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -28093,7 +28014,7 @@
         <v>80</v>
       </c>
       <c r="G209" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H209" t="s" s="2">
         <v>79</v>
@@ -28102,18 +28023,20 @@
         <v>79</v>
       </c>
       <c r="J209" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>205</v>
+        <v>787</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N209" s="2"/>
+        <v>788</v>
+      </c>
+      <c r="N209" t="s" s="2">
+        <v>789</v>
+      </c>
       <c r="O209" s="2"/>
       <c r="P209" t="s" s="2">
         <v>79</v>
@@ -28150,31 +28073,31 @@
         <v>79</v>
       </c>
       <c r="AB209" t="s" s="2">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="AC209" t="s" s="2">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="AD209" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE209" t="s" s="2">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="AF209" t="s" s="2">
-        <v>119</v>
+        <v>790</v>
       </c>
       <c r="AG209" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH209" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI209" t="s" s="2">
-        <v>79</v>
+        <v>791</v>
       </c>
       <c r="AJ209" t="s" s="2">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="AK209" t="s" s="2">
         <v>79</v>
@@ -28186,7 +28109,7 @@
         <v>79</v>
       </c>
       <c r="AN209" t="s" s="2">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="AO209" t="s" s="2">
         <v>79</v>
@@ -28197,10 +28120,10 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>773</v>
+        <v>792</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>774</v>
+        <v>792</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -28208,7 +28131,7 @@
       </c>
       <c r="E210" s="2"/>
       <c r="F210" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G210" t="s" s="2">
         <v>91</v>
@@ -28220,19 +28143,19 @@
         <v>79</v>
       </c>
       <c r="J210" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K210" t="s" s="2">
         <v>138</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>227</v>
+        <v>793</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>228</v>
+        <v>794</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>229</v>
+        <v>795</v>
       </c>
       <c r="O210" s="2"/>
       <c r="P210" t="s" s="2">
@@ -28240,7 +28163,7 @@
       </c>
       <c r="Q210" s="2"/>
       <c r="R210" t="s" s="2">
-        <v>775</v>
+        <v>79</v>
       </c>
       <c r="S210" t="s" s="2">
         <v>79</v>
@@ -28258,13 +28181,11 @@
         <v>79</v>
       </c>
       <c r="X210" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y210" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="Y210" s="2"/>
       <c r="Z210" t="s" s="2">
-        <v>79</v>
+        <v>553</v>
       </c>
       <c r="AA210" t="s" s="2">
         <v>79</v>
@@ -28282,10 +28203,10 @@
         <v>79</v>
       </c>
       <c r="AF210" t="s" s="2">
-        <v>231</v>
+        <v>796</v>
       </c>
       <c r="AG210" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH210" t="s" s="2">
         <v>91</v>
@@ -28294,7 +28215,7 @@
         <v>79</v>
       </c>
       <c r="AJ210" t="s" s="2">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="AK210" t="s" s="2">
         <v>79</v>
@@ -28317,10 +28238,10 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>776</v>
+        <v>797</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>777</v>
+        <v>797</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -28340,18 +28261,20 @@
         <v>79</v>
       </c>
       <c r="J211" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>158</v>
+        <v>307</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>235</v>
+        <v>798</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="N211" s="2"/>
+        <v>799</v>
+      </c>
+      <c r="N211" t="s" s="2">
+        <v>800</v>
+      </c>
       <c r="O211" s="2"/>
       <c r="P211" t="s" s="2">
         <v>79</v>
@@ -28361,7 +28284,7 @@
         <v>79</v>
       </c>
       <c r="S211" t="s" s="2">
-        <v>778</v>
+        <v>79</v>
       </c>
       <c r="T211" t="s" s="2">
         <v>79</v>
@@ -28376,11 +28299,13 @@
         <v>79</v>
       </c>
       <c r="X211" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="Y211" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y211" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z211" t="s" s="2">
-        <v>779</v>
+        <v>79</v>
       </c>
       <c r="AA211" t="s" s="2">
         <v>79</v>
@@ -28398,7 +28323,7 @@
         <v>79</v>
       </c>
       <c r="AF211" t="s" s="2">
-        <v>237</v>
+        <v>801</v>
       </c>
       <c r="AG211" t="s" s="2">
         <v>80</v>
@@ -28422,7 +28347,7 @@
         <v>79</v>
       </c>
       <c r="AN211" t="s" s="2">
-        <v>203</v>
+        <v>802</v>
       </c>
       <c r="AO211" t="s" s="2">
         <v>79</v>
@@ -28433,14 +28358,12 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>780</v>
+        <v>803</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>714</v>
-      </c>
-      <c r="C212" t="s" s="2">
-        <v>781</v>
-      </c>
+        <v>803</v>
+      </c>
+      <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
         <v>79</v>
       </c>
@@ -28458,18 +28381,20 @@
         <v>79</v>
       </c>
       <c r="J212" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>782</v>
+        <v>105</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>783</v>
+        <v>804</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>784</v>
-      </c>
-      <c r="N212" s="2"/>
+        <v>805</v>
+      </c>
+      <c r="N212" t="s" s="2">
+        <v>806</v>
+      </c>
       <c r="O212" s="2"/>
       <c r="P212" t="s" s="2">
         <v>79</v>
@@ -28518,19 +28443,19 @@
         <v>79</v>
       </c>
       <c r="AF212" t="s" s="2">
-        <v>119</v>
+        <v>807</v>
       </c>
       <c r="AG212" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH212" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI212" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ212" t="s" s="2">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="AK212" t="s" s="2">
         <v>79</v>
@@ -28542,7 +28467,7 @@
         <v>79</v>
       </c>
       <c r="AN212" t="s" s="2">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="AO212" t="s" s="2">
         <v>79</v>
@@ -28553,10 +28478,10 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>785</v>
+        <v>808</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>720</v>
+        <v>808</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -28564,10 +28489,10 @@
       </c>
       <c r="E213" s="2"/>
       <c r="F213" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G213" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H213" t="s" s="2">
         <v>79</v>
@@ -28576,19 +28501,23 @@
         <v>79</v>
       </c>
       <c r="J213" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>180</v>
+        <v>809</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>721</v>
+        <v>810</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>722</v>
-      </c>
-      <c r="N213" s="2"/>
-      <c r="O213" s="2"/>
+        <v>811</v>
+      </c>
+      <c r="N213" t="s" s="2">
+        <v>812</v>
+      </c>
+      <c r="O213" t="s" s="2">
+        <v>813</v>
+      </c>
       <c r="P213" t="s" s="2">
         <v>79</v>
       </c>
@@ -28597,7 +28526,7 @@
         <v>79</v>
       </c>
       <c r="S213" t="s" s="2">
-        <v>786</v>
+        <v>79</v>
       </c>
       <c r="T213" t="s" s="2">
         <v>79</v>
@@ -28612,13 +28541,13 @@
         <v>79</v>
       </c>
       <c r="X213" t="s" s="2">
-        <v>334</v>
+        <v>79</v>
       </c>
       <c r="Y213" t="s" s="2">
-        <v>723</v>
+        <v>79</v>
       </c>
       <c r="Z213" t="s" s="2">
-        <v>724</v>
+        <v>79</v>
       </c>
       <c r="AA213" t="s" s="2">
         <v>79</v>
@@ -28636,16 +28565,16 @@
         <v>79</v>
       </c>
       <c r="AF213" t="s" s="2">
-        <v>725</v>
+        <v>808</v>
       </c>
       <c r="AG213" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH213" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI213" t="s" s="2">
-        <v>726</v>
+        <v>79</v>
       </c>
       <c r="AJ213" t="s" s="2">
         <v>103</v>
@@ -28657,13 +28586,13 @@
         <v>79</v>
       </c>
       <c r="AM213" t="s" s="2">
-        <v>727</v>
+        <v>79</v>
       </c>
       <c r="AN213" t="s" s="2">
-        <v>728</v>
+        <v>814</v>
       </c>
       <c r="AO213" t="s" s="2">
-        <v>729</v>
+        <v>79</v>
       </c>
       <c r="AP213" t="s" s="2">
         <v>79</v>
@@ -28671,10 +28600,10 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>787</v>
+        <v>815</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>730</v>
+        <v>815</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -28682,35 +28611,31 @@
       </c>
       <c r="E214" s="2"/>
       <c r="F214" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G214" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H214" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I214" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J214" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K214" t="s" s="2">
         <v>105</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>788</v>
+        <v>106</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>732</v>
-      </c>
-      <c r="N214" t="s" s="2">
-        <v>733</v>
-      </c>
-      <c r="O214" t="s" s="2">
-        <v>734</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="N214" s="2"/>
+      <c r="O214" s="2"/>
       <c r="P214" t="s" s="2">
         <v>79</v>
       </c>
@@ -28758,7 +28683,7 @@
         <v>79</v>
       </c>
       <c r="AF214" t="s" s="2">
-        <v>735</v>
+        <v>108</v>
       </c>
       <c r="AG214" t="s" s="2">
         <v>80</v>
@@ -28770,7 +28695,7 @@
         <v>79</v>
       </c>
       <c r="AJ214" t="s" s="2">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="AK214" t="s" s="2">
         <v>79</v>
@@ -28779,13 +28704,13 @@
         <v>79</v>
       </c>
       <c r="AM214" t="s" s="2">
-        <v>736</v>
+        <v>79</v>
       </c>
       <c r="AN214" t="s" s="2">
-        <v>737</v>
+        <v>109</v>
       </c>
       <c r="AO214" t="s" s="2">
-        <v>372</v>
+        <v>79</v>
       </c>
       <c r="AP214" t="s" s="2">
         <v>79</v>
@@ -28793,46 +28718,44 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>789</v>
+        <v>816</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>738</v>
+        <v>816</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="E215" s="2"/>
       <c r="F215" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G215" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H215" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I215" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="J215" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>180</v>
+        <v>112</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>739</v>
+        <v>113</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>740</v>
+        <v>114</v>
       </c>
       <c r="N215" t="s" s="2">
-        <v>790</v>
-      </c>
-      <c r="O215" t="s" s="2">
-        <v>742</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="O215" s="2"/>
       <c r="P215" t="s" s="2">
         <v>79</v>
       </c>
@@ -28856,13 +28779,13 @@
         <v>79</v>
       </c>
       <c r="X215" t="s" s="2">
-        <v>334</v>
+        <v>79</v>
       </c>
       <c r="Y215" t="s" s="2">
-        <v>743</v>
+        <v>79</v>
       </c>
       <c r="Z215" t="s" s="2">
-        <v>744</v>
+        <v>79</v>
       </c>
       <c r="AA215" t="s" s="2">
         <v>79</v>
@@ -28880,19 +28803,19 @@
         <v>79</v>
       </c>
       <c r="AF215" t="s" s="2">
-        <v>745</v>
+        <v>119</v>
       </c>
       <c r="AG215" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH215" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI215" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ215" t="s" s="2">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="AK215" t="s" s="2">
         <v>79</v>
@@ -28901,13 +28824,13 @@
         <v>79</v>
       </c>
       <c r="AM215" t="s" s="2">
-        <v>746</v>
+        <v>79</v>
       </c>
       <c r="AN215" t="s" s="2">
-        <v>747</v>
+        <v>109</v>
       </c>
       <c r="AO215" t="s" s="2">
-        <v>748</v>
+        <v>79</v>
       </c>
       <c r="AP215" t="s" s="2">
         <v>79</v>
@@ -28915,44 +28838,46 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>791</v>
+        <v>817</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>749</v>
+        <v>817</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
-        <v>79</v>
+        <v>818</v>
       </c>
       <c r="E216" s="2"/>
       <c r="F216" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G216" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H216" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I216" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="J216" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>750</v>
+        <v>112</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>751</v>
+        <v>819</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>752</v>
+        <v>820</v>
       </c>
       <c r="N216" t="s" s="2">
-        <v>753</v>
-      </c>
-      <c r="O216" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="O216" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="P216" t="s" s="2">
         <v>79</v>
       </c>
@@ -29000,19 +28925,19 @@
         <v>79</v>
       </c>
       <c r="AF216" t="s" s="2">
-        <v>754</v>
+        <v>821</v>
       </c>
       <c r="AG216" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH216" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI216" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ216" t="s" s="2">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="AK216" t="s" s="2">
         <v>79</v>
@@ -29021,10 +28946,10 @@
         <v>79</v>
       </c>
       <c r="AM216" t="s" s="2">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="AN216" t="s" s="2">
-        <v>109</v>
+        <v>203</v>
       </c>
       <c r="AO216" t="s" s="2">
         <v>79</v>
@@ -29035,10 +28960,10 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>792</v>
+        <v>822</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>755</v>
+        <v>822</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -29058,19 +28983,21 @@
         <v>79</v>
       </c>
       <c r="J217" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>234</v>
+        <v>341</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>756</v>
+        <v>823</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>757</v>
+        <v>824</v>
       </c>
       <c r="N217" s="2"/>
-      <c r="O217" s="2"/>
+      <c r="O217" t="s" s="2">
+        <v>825</v>
+      </c>
       <c r="P217" t="s" s="2">
         <v>79</v>
       </c>
@@ -29094,13 +29021,13 @@
         <v>79</v>
       </c>
       <c r="X217" t="s" s="2">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="Y217" t="s" s="2">
-        <v>79</v>
+        <v>826</v>
       </c>
       <c r="Z217" t="s" s="2">
-        <v>79</v>
+        <v>827</v>
       </c>
       <c r="AA217" t="s" s="2">
         <v>79</v>
@@ -29118,7 +29045,7 @@
         <v>79</v>
       </c>
       <c r="AF217" t="s" s="2">
-        <v>758</v>
+        <v>822</v>
       </c>
       <c r="AG217" t="s" s="2">
         <v>80</v>
@@ -29139,13 +29066,13 @@
         <v>79</v>
       </c>
       <c r="AM217" t="s" s="2">
-        <v>203</v>
+        <v>79</v>
       </c>
       <c r="AN217" t="s" s="2">
-        <v>759</v>
+        <v>828</v>
       </c>
       <c r="AO217" t="s" s="2">
-        <v>380</v>
+        <v>79</v>
       </c>
       <c r="AP217" t="s" s="2">
         <v>79</v>
@@ -29153,10 +29080,10 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>793</v>
+        <v>829</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>793</v>
+        <v>829</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
@@ -29167,10 +29094,10 @@
         <v>80</v>
       </c>
       <c r="G218" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H218" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I218" t="s" s="2">
         <v>79</v>
@@ -29179,19 +29106,17 @@
         <v>79</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>794</v>
+        <v>830</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>795</v>
+        <v>831</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>796</v>
-      </c>
-      <c r="N218" t="s" s="2">
-        <v>797</v>
-      </c>
+        <v>832</v>
+      </c>
+      <c r="N218" s="2"/>
       <c r="O218" t="s" s="2">
-        <v>798</v>
+        <v>833</v>
       </c>
       <c r="P218" t="s" s="2">
         <v>79</v>
@@ -29240,34 +29165,34 @@
         <v>79</v>
       </c>
       <c r="AF218" t="s" s="2">
-        <v>793</v>
+        <v>829</v>
       </c>
       <c r="AG218" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH218" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI218" t="s" s="2">
-        <v>212</v>
+        <v>79</v>
       </c>
       <c r="AJ218" t="s" s="2">
-        <v>799</v>
+        <v>103</v>
       </c>
       <c r="AK218" t="s" s="2">
-        <v>800</v>
+        <v>79</v>
       </c>
       <c r="AL218" t="s" s="2">
-        <v>801</v>
+        <v>79</v>
       </c>
       <c r="AM218" t="s" s="2">
-        <v>802</v>
+        <v>834</v>
       </c>
       <c r="AN218" t="s" s="2">
-        <v>803</v>
+        <v>835</v>
       </c>
       <c r="AO218" t="s" s="2">
-        <v>804</v>
+        <v>79</v>
       </c>
       <c r="AP218" t="s" s="2">
         <v>79</v>
@@ -29275,10 +29200,10 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>805</v>
+        <v>836</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>805</v>
+        <v>836</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -29289,7 +29214,7 @@
         <v>80</v>
       </c>
       <c r="G219" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H219" t="s" s="2">
         <v>79</v>
@@ -29298,20 +29223,20 @@
         <v>79</v>
       </c>
       <c r="J219" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>806</v>
+        <v>701</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>807</v>
+        <v>837</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>808</v>
+        <v>703</v>
       </c>
       <c r="N219" s="2"/>
       <c r="O219" t="s" s="2">
-        <v>809</v>
+        <v>838</v>
       </c>
       <c r="P219" t="s" s="2">
         <v>79</v>
@@ -29360,19 +29285,19 @@
         <v>79</v>
       </c>
       <c r="AF219" t="s" s="2">
-        <v>805</v>
+        <v>836</v>
       </c>
       <c r="AG219" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH219" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI219" t="s" s="2">
-        <v>79</v>
+        <v>212</v>
       </c>
       <c r="AJ219" t="s" s="2">
-        <v>103</v>
+        <v>839</v>
       </c>
       <c r="AK219" t="s" s="2">
         <v>79</v>
@@ -29381,13 +29306,13 @@
         <v>79</v>
       </c>
       <c r="AM219" t="s" s="2">
-        <v>535</v>
+        <v>710</v>
       </c>
       <c r="AN219" t="s" s="2">
-        <v>810</v>
+        <v>711</v>
       </c>
       <c r="AO219" t="s" s="2">
-        <v>109</v>
+        <v>712</v>
       </c>
       <c r="AP219" t="s" s="2">
         <v>79</v>
@@ -29395,10 +29320,10 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>811</v>
+        <v>840</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>811</v>
+        <v>840</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -29421,16 +29346,20 @@
         <v>79</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>105</v>
+        <v>841</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>106</v>
+        <v>842</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N220" s="2"/>
-      <c r="O220" s="2"/>
+        <v>769</v>
+      </c>
+      <c r="N220" t="s" s="2">
+        <v>770</v>
+      </c>
+      <c r="O220" t="s" s="2">
+        <v>843</v>
+      </c>
       <c r="P220" t="s" s="2">
         <v>79</v>
       </c>
@@ -29478,7 +29407,7 @@
         <v>79</v>
       </c>
       <c r="AF220" t="s" s="2">
-        <v>108</v>
+        <v>840</v>
       </c>
       <c r="AG220" t="s" s="2">
         <v>80</v>
@@ -29487,10 +29416,10 @@
         <v>91</v>
       </c>
       <c r="AI220" t="s" s="2">
-        <v>79</v>
+        <v>212</v>
       </c>
       <c r="AJ220" t="s" s="2">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="AK220" t="s" s="2">
         <v>79</v>
@@ -29499,13 +29428,13 @@
         <v>79</v>
       </c>
       <c r="AM220" t="s" s="2">
-        <v>79</v>
+        <v>775</v>
       </c>
       <c r="AN220" t="s" s="2">
-        <v>109</v>
+        <v>776</v>
       </c>
       <c r="AO220" t="s" s="2">
-        <v>79</v>
+        <v>777</v>
       </c>
       <c r="AP220" t="s" s="2">
         <v>79</v>
@@ -29513,14 +29442,14 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>812</v>
+        <v>844</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>812</v>
+        <v>844</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="E221" s="2"/>
       <c r="F221" t="s" s="2">
@@ -29530,7 +29459,7 @@
         <v>81</v>
       </c>
       <c r="H221" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="I221" t="s" s="2">
         <v>79</v>
@@ -29539,18 +29468,18 @@
         <v>79</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>112</v>
+        <v>845</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>113</v>
+        <v>846</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N221" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="O221" s="2"/>
+        <v>847</v>
+      </c>
+      <c r="N221" s="2"/>
+      <c r="O221" t="s" s="2">
+        <v>848</v>
+      </c>
       <c r="P221" t="s" s="2">
         <v>79</v>
       </c>
@@ -29586,19 +29515,19 @@
         <v>79</v>
       </c>
       <c r="AB221" t="s" s="2">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="AC221" t="s" s="2">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="AD221" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE221" t="s" s="2">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="AF221" t="s" s="2">
-        <v>119</v>
+        <v>844</v>
       </c>
       <c r="AG221" t="s" s="2">
         <v>80</v>
@@ -29610,7 +29539,7 @@
         <v>79</v>
       </c>
       <c r="AJ221" t="s" s="2">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="AK221" t="s" s="2">
         <v>79</v>
@@ -29631,1570 +29560,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="222" hidden="true">
-      <c r="A222" t="s" s="2">
-        <v>813</v>
-      </c>
-      <c r="B222" t="s" s="2">
-        <v>813</v>
-      </c>
-      <c r="C222" s="2"/>
-      <c r="D222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E222" s="2"/>
-      <c r="F222" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G222" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J222" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K222" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="L222" t="s" s="2">
-        <v>814</v>
-      </c>
-      <c r="M222" t="s" s="2">
-        <v>815</v>
-      </c>
-      <c r="N222" t="s" s="2">
-        <v>816</v>
-      </c>
-      <c r="O222" s="2"/>
-      <c r="P222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q222" s="2"/>
-      <c r="R222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF222" t="s" s="2">
-        <v>817</v>
-      </c>
-      <c r="AG222" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH222" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI222" t="s" s="2">
-        <v>818</v>
-      </c>
-      <c r="AJ222" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN222" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AO222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP222" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="223" hidden="true">
-      <c r="A223" t="s" s="2">
-        <v>819</v>
-      </c>
-      <c r="B223" t="s" s="2">
-        <v>819</v>
-      </c>
-      <c r="C223" s="2"/>
-      <c r="D223" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E223" s="2"/>
-      <c r="F223" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G223" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H223" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I223" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J223" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K223" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="L223" t="s" s="2">
-        <v>820</v>
-      </c>
-      <c r="M223" t="s" s="2">
-        <v>821</v>
-      </c>
-      <c r="N223" t="s" s="2">
-        <v>822</v>
-      </c>
-      <c r="O223" s="2"/>
-      <c r="P223" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q223" s="2"/>
-      <c r="R223" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S223" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T223" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U223" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V223" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W223" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X223" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="Y223" s="2"/>
-      <c r="Z223" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="AA223" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB223" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC223" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD223" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE223" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF223" t="s" s="2">
-        <v>823</v>
-      </c>
-      <c r="AG223" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH223" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI223" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ223" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK223" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL223" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM223" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN223" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AO223" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP223" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="224" hidden="true">
-      <c r="A224" t="s" s="2">
-        <v>824</v>
-      </c>
-      <c r="B224" t="s" s="2">
-        <v>824</v>
-      </c>
-      <c r="C224" s="2"/>
-      <c r="D224" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E224" s="2"/>
-      <c r="F224" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G224" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H224" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I224" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J224" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K224" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="L224" t="s" s="2">
-        <v>825</v>
-      </c>
-      <c r="M224" t="s" s="2">
-        <v>826</v>
-      </c>
-      <c r="N224" t="s" s="2">
-        <v>827</v>
-      </c>
-      <c r="O224" s="2"/>
-      <c r="P224" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q224" s="2"/>
-      <c r="R224" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S224" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T224" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U224" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V224" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W224" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X224" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y224" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z224" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA224" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB224" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC224" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD224" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE224" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF224" t="s" s="2">
-        <v>828</v>
-      </c>
-      <c r="AG224" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH224" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI224" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ224" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK224" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL224" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM224" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN224" t="s" s="2">
-        <v>829</v>
-      </c>
-      <c r="AO224" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP224" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="225" hidden="true">
-      <c r="A225" t="s" s="2">
-        <v>830</v>
-      </c>
-      <c r="B225" t="s" s="2">
-        <v>830</v>
-      </c>
-      <c r="C225" s="2"/>
-      <c r="D225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E225" s="2"/>
-      <c r="F225" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G225" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J225" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K225" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="L225" t="s" s="2">
-        <v>831</v>
-      </c>
-      <c r="M225" t="s" s="2">
-        <v>832</v>
-      </c>
-      <c r="N225" t="s" s="2">
-        <v>833</v>
-      </c>
-      <c r="O225" s="2"/>
-      <c r="P225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q225" s="2"/>
-      <c r="R225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF225" t="s" s="2">
-        <v>834</v>
-      </c>
-      <c r="AG225" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH225" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ225" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN225" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AO225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP225" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="226" hidden="true">
-      <c r="A226" t="s" s="2">
-        <v>835</v>
-      </c>
-      <c r="B226" t="s" s="2">
-        <v>835</v>
-      </c>
-      <c r="C226" s="2"/>
-      <c r="D226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E226" s="2"/>
-      <c r="F226" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G226" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K226" t="s" s="2">
-        <v>836</v>
-      </c>
-      <c r="L226" t="s" s="2">
-        <v>837</v>
-      </c>
-      <c r="M226" t="s" s="2">
-        <v>838</v>
-      </c>
-      <c r="N226" t="s" s="2">
-        <v>839</v>
-      </c>
-      <c r="O226" t="s" s="2">
-        <v>840</v>
-      </c>
-      <c r="P226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q226" s="2"/>
-      <c r="R226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF226" t="s" s="2">
-        <v>835</v>
-      </c>
-      <c r="AG226" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH226" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ226" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN226" t="s" s="2">
-        <v>841</v>
-      </c>
-      <c r="AO226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP226" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="227" hidden="true">
-      <c r="A227" t="s" s="2">
-        <v>842</v>
-      </c>
-      <c r="B227" t="s" s="2">
-        <v>842</v>
-      </c>
-      <c r="C227" s="2"/>
-      <c r="D227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E227" s="2"/>
-      <c r="F227" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G227" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K227" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="L227" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M227" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N227" s="2"/>
-      <c r="O227" s="2"/>
-      <c r="P227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q227" s="2"/>
-      <c r="R227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF227" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AG227" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH227" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN227" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AO227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP227" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="228" hidden="true">
-      <c r="A228" t="s" s="2">
-        <v>843</v>
-      </c>
-      <c r="B228" t="s" s="2">
-        <v>843</v>
-      </c>
-      <c r="C228" s="2"/>
-      <c r="D228" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="E228" s="2"/>
-      <c r="F228" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G228" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H228" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I228" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J228" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K228" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="L228" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="M228" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N228" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="O228" s="2"/>
-      <c r="P228" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q228" s="2"/>
-      <c r="R228" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S228" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T228" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U228" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V228" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W228" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X228" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y228" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z228" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA228" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB228" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC228" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD228" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE228" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF228" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AG228" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH228" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI228" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ228" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="AK228" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL228" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM228" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN228" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AO228" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP228" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="229" hidden="true">
-      <c r="A229" t="s" s="2">
-        <v>844</v>
-      </c>
-      <c r="B229" t="s" s="2">
-        <v>844</v>
-      </c>
-      <c r="C229" s="2"/>
-      <c r="D229" t="s" s="2">
-        <v>845</v>
-      </c>
-      <c r="E229" s="2"/>
-      <c r="F229" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G229" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H229" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I229" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="J229" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K229" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="L229" t="s" s="2">
-        <v>846</v>
-      </c>
-      <c r="M229" t="s" s="2">
-        <v>847</v>
-      </c>
-      <c r="N229" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="O229" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="P229" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q229" s="2"/>
-      <c r="R229" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S229" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T229" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U229" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V229" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W229" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X229" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y229" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z229" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA229" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB229" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC229" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD229" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE229" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF229" t="s" s="2">
-        <v>848</v>
-      </c>
-      <c r="AG229" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH229" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI229" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ229" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="AK229" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL229" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM229" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN229" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AO229" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP229" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="230" hidden="true">
-      <c r="A230" t="s" s="2">
-        <v>849</v>
-      </c>
-      <c r="B230" t="s" s="2">
-        <v>849</v>
-      </c>
-      <c r="C230" s="2"/>
-      <c r="D230" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E230" s="2"/>
-      <c r="F230" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G230" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H230" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I230" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J230" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K230" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="L230" t="s" s="2">
-        <v>850</v>
-      </c>
-      <c r="M230" t="s" s="2">
-        <v>851</v>
-      </c>
-      <c r="N230" s="2"/>
-      <c r="O230" t="s" s="2">
-        <v>852</v>
-      </c>
-      <c r="P230" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q230" s="2"/>
-      <c r="R230" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S230" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T230" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U230" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V230" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W230" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X230" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="Y230" t="s" s="2">
-        <v>853</v>
-      </c>
-      <c r="Z230" t="s" s="2">
-        <v>854</v>
-      </c>
-      <c r="AA230" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB230" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC230" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD230" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE230" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF230" t="s" s="2">
-        <v>849</v>
-      </c>
-      <c r="AG230" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH230" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI230" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ230" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK230" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL230" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM230" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN230" t="s" s="2">
-        <v>855</v>
-      </c>
-      <c r="AO230" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP230" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="231" hidden="true">
-      <c r="A231" t="s" s="2">
-        <v>856</v>
-      </c>
-      <c r="B231" t="s" s="2">
-        <v>856</v>
-      </c>
-      <c r="C231" s="2"/>
-      <c r="D231" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E231" s="2"/>
-      <c r="F231" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G231" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H231" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I231" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J231" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K231" t="s" s="2">
-        <v>857</v>
-      </c>
-      <c r="L231" t="s" s="2">
-        <v>858</v>
-      </c>
-      <c r="M231" t="s" s="2">
-        <v>859</v>
-      </c>
-      <c r="N231" s="2"/>
-      <c r="O231" t="s" s="2">
-        <v>860</v>
-      </c>
-      <c r="P231" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q231" s="2"/>
-      <c r="R231" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S231" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T231" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U231" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V231" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W231" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X231" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y231" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z231" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA231" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB231" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC231" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD231" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE231" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF231" t="s" s="2">
-        <v>856</v>
-      </c>
-      <c r="AG231" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH231" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI231" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ231" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK231" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL231" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM231" t="s" s="2">
-        <v>861</v>
-      </c>
-      <c r="AN231" t="s" s="2">
-        <v>862</v>
-      </c>
-      <c r="AO231" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP231" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="232" hidden="true">
-      <c r="A232" t="s" s="2">
-        <v>863</v>
-      </c>
-      <c r="B232" t="s" s="2">
-        <v>863</v>
-      </c>
-      <c r="C232" s="2"/>
-      <c r="D232" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E232" s="2"/>
-      <c r="F232" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G232" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H232" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I232" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J232" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K232" t="s" s="2">
-        <v>701</v>
-      </c>
-      <c r="L232" t="s" s="2">
-        <v>864</v>
-      </c>
-      <c r="M232" t="s" s="2">
-        <v>703</v>
-      </c>
-      <c r="N232" s="2"/>
-      <c r="O232" t="s" s="2">
-        <v>865</v>
-      </c>
-      <c r="P232" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q232" s="2"/>
-      <c r="R232" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S232" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T232" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U232" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V232" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W232" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X232" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y232" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z232" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA232" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB232" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC232" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD232" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE232" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF232" t="s" s="2">
-        <v>863</v>
-      </c>
-      <c r="AG232" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH232" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI232" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AJ232" t="s" s="2">
-        <v>866</v>
-      </c>
-      <c r="AK232" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL232" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM232" t="s" s="2">
-        <v>710</v>
-      </c>
-      <c r="AN232" t="s" s="2">
-        <v>711</v>
-      </c>
-      <c r="AO232" t="s" s="2">
-        <v>712</v>
-      </c>
-      <c r="AP232" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="233" hidden="true">
-      <c r="A233" t="s" s="2">
-        <v>867</v>
-      </c>
-      <c r="B233" t="s" s="2">
-        <v>867</v>
-      </c>
-      <c r="C233" s="2"/>
-      <c r="D233" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E233" s="2"/>
-      <c r="F233" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G233" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H233" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I233" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J233" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K233" t="s" s="2">
-        <v>868</v>
-      </c>
-      <c r="L233" t="s" s="2">
-        <v>869</v>
-      </c>
-      <c r="M233" t="s" s="2">
-        <v>796</v>
-      </c>
-      <c r="N233" t="s" s="2">
-        <v>797</v>
-      </c>
-      <c r="O233" t="s" s="2">
-        <v>870</v>
-      </c>
-      <c r="P233" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q233" s="2"/>
-      <c r="R233" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S233" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T233" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U233" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V233" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W233" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X233" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y233" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z233" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA233" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB233" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC233" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD233" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE233" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF233" t="s" s="2">
-        <v>867</v>
-      </c>
-      <c r="AG233" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH233" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI233" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AJ233" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK233" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL233" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM233" t="s" s="2">
-        <v>802</v>
-      </c>
-      <c r="AN233" t="s" s="2">
-        <v>803</v>
-      </c>
-      <c r="AO233" t="s" s="2">
-        <v>804</v>
-      </c>
-      <c r="AP233" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="234" hidden="true">
-      <c r="A234" t="s" s="2">
-        <v>871</v>
-      </c>
-      <c r="B234" t="s" s="2">
-        <v>871</v>
-      </c>
-      <c r="C234" s="2"/>
-      <c r="D234" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E234" s="2"/>
-      <c r="F234" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G234" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H234" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="I234" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J234" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K234" t="s" s="2">
-        <v>872</v>
-      </c>
-      <c r="L234" t="s" s="2">
-        <v>873</v>
-      </c>
-      <c r="M234" t="s" s="2">
-        <v>874</v>
-      </c>
-      <c r="N234" s="2"/>
-      <c r="O234" t="s" s="2">
-        <v>875</v>
-      </c>
-      <c r="P234" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q234" s="2"/>
-      <c r="R234" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S234" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T234" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U234" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V234" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W234" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X234" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y234" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z234" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA234" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB234" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC234" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD234" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE234" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF234" t="s" s="2">
-        <v>871</v>
-      </c>
-      <c r="AG234" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH234" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI234" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ234" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK234" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL234" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM234" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN234" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AO234" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP234" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AP234">
+  <autoFilter ref="A1:AP221">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -31204,7 +29571,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI233">
+  <conditionalFormatting sqref="A2:AI220">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-organization.xlsx
+++ b/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T08:59:38+00:00</t>
+    <t>2024-11-13T09:09:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-organization.xlsx
+++ b/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T09:09:03+00:00</t>
+    <t>2024-11-13T09:11:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-organization.xlsx
+++ b/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T09:11:42+00:00</t>
+    <t>2024-11-13T09:14:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-organization.xlsx
+++ b/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T09:14:39+00:00</t>
+    <t>2024-11-13T09:36:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-organization.xlsx
+++ b/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T09:36:20+00:00</t>
+    <t>2024-11-13T09:52:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
